--- a/Uploads/crypto_market_cap_365d.xlsx
+++ b/Uploads/crypto_market_cap_365d.xlsx
@@ -8137,13 +8137,13 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>109509.7</v>
+        <v>109037.2</v>
       </c>
       <c r="D367" t="n">
-        <v>48229601154.34</v>
+        <v>48549951592.58</v>
       </c>
       <c r="E367" t="n">
-        <v>2175830656348.57</v>
+        <v>2166442631506.9</v>
       </c>
     </row>
     <row r="368">
@@ -15823,13 +15823,13 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>2578.31</v>
+        <v>2566.58</v>
       </c>
       <c r="D733" t="n">
-        <v>30851562685.94</v>
+        <v>31063092065.83</v>
       </c>
       <c r="E733" t="n">
-        <v>311269776548.94</v>
+        <v>309854106311.86</v>
       </c>
     </row>
     <row r="734">
@@ -23512,10 +23512,10 @@
         <v>0.78</v>
       </c>
       <c r="D1099" t="n">
-        <v>1327375363.36</v>
+        <v>1370867653.64</v>
       </c>
       <c r="E1099" t="n">
-        <v>28186272623.55</v>
+        <v>28072439859.51</v>
       </c>
     </row>
     <row r="1100">
@@ -23536,7 +23536,7 @@
         <v>4803498929.52</v>
       </c>
       <c r="E1100" t="n">
-        <v>91582327108.78</v>
+        <v>91582324965.39999</v>
       </c>
     </row>
     <row r="1101">
@@ -23557,7 +23557,7 @@
         <v>3550795871.1</v>
       </c>
       <c r="E1101" t="n">
-        <v>87266425472.41</v>
+        <v>87266423430.03999</v>
       </c>
     </row>
     <row r="1102">
@@ -23578,7 +23578,7 @@
         <v>1678123312.6</v>
       </c>
       <c r="E1102" t="n">
-        <v>87580039857.89</v>
+        <v>87580037808.17</v>
       </c>
     </row>
     <row r="1103">
@@ -23599,7 +23599,7 @@
         <v>2230258323.61</v>
       </c>
       <c r="E1103" t="n">
-        <v>84973394266.66</v>
+        <v>84973392277.95</v>
       </c>
     </row>
     <row r="1104">
@@ -23620,7 +23620,7 @@
         <v>2411003712.57</v>
       </c>
       <c r="E1104" t="n">
-        <v>88331487549.03</v>
+        <v>88331485481.73</v>
       </c>
     </row>
     <row r="1105">
@@ -23641,7 +23641,7 @@
         <v>2899980604.1</v>
       </c>
       <c r="E1105" t="n">
-        <v>87778101042.89999</v>
+        <v>87778098988.55</v>
       </c>
     </row>
     <row r="1106">
@@ -23662,7 +23662,7 @@
         <v>2520229123.37</v>
       </c>
       <c r="E1106" t="n">
-        <v>87458153721.32001</v>
+        <v>87458151674.46001</v>
       </c>
     </row>
     <row r="1107">
@@ -23683,7 +23683,7 @@
         <v>2816032327.04</v>
       </c>
       <c r="E1107" t="n">
-        <v>86875051039.73</v>
+        <v>86875049006.52</v>
       </c>
     </row>
     <row r="1108">
@@ -23704,7 +23704,7 @@
         <v>2443689641.73</v>
       </c>
       <c r="E1108" t="n">
-        <v>86302379211.41</v>
+        <v>86302377191.60001</v>
       </c>
     </row>
     <row r="1109">
@@ -23725,7 +23725,7 @@
         <v>1004763875.41</v>
       </c>
       <c r="E1109" t="n">
-        <v>86328233860.94</v>
+        <v>86328231840.52</v>
       </c>
     </row>
     <row r="1110">
@@ -23746,7 +23746,7 @@
         <v>1496336327.68</v>
       </c>
       <c r="E1110" t="n">
-        <v>84848524128.42999</v>
+        <v>84848522142.64999</v>
       </c>
     </row>
     <row r="1111">
@@ -23767,7 +23767,7 @@
         <v>2044856437.25</v>
       </c>
       <c r="E1111" t="n">
-        <v>85729687755.58</v>
+        <v>85729685749.17</v>
       </c>
     </row>
     <row r="1112">
@@ -23788,7 +23788,7 @@
         <v>1750946991.73</v>
       </c>
       <c r="E1112" t="n">
-        <v>89326928621.28</v>
+        <v>89326926530.67999</v>
       </c>
     </row>
     <row r="1113">
@@ -23809,7 +23809,7 @@
         <v>2286674729.78</v>
       </c>
       <c r="E1113" t="n">
-        <v>90388815338.14</v>
+        <v>90388813222.69</v>
       </c>
     </row>
     <row r="1114">
@@ -23830,7 +23830,7 @@
         <v>1965476413.98</v>
       </c>
       <c r="E1114" t="n">
-        <v>88621892737.78</v>
+        <v>88621890663.67999</v>
       </c>
     </row>
     <row r="1115">
@@ -23851,7 +23851,7 @@
         <v>3548053094.32</v>
       </c>
       <c r="E1115" t="n">
-        <v>84502439773.2</v>
+        <v>84502437795.50999</v>
       </c>
     </row>
     <row r="1116">
@@ -23872,7 +23872,7 @@
         <v>1667795117.64</v>
       </c>
       <c r="E1116" t="n">
-        <v>82280059330.88</v>
+        <v>82280057405.2</v>
       </c>
     </row>
     <row r="1117">
@@ -23893,7 +23893,7 @@
         <v>1435770777.55</v>
       </c>
       <c r="E1117" t="n">
-        <v>84299837861.14999</v>
+        <v>84299835888.2</v>
       </c>
     </row>
     <row r="1118">
@@ -23914,7 +23914,7 @@
         <v>1758494775.19</v>
       </c>
       <c r="E1118" t="n">
-        <v>82647098591</v>
+        <v>82647096656.74001</v>
       </c>
     </row>
     <row r="1119">
@@ -23935,7 +23935,7 @@
         <v>3108518009.01</v>
       </c>
       <c r="E1119" t="n">
-        <v>77661564614.78</v>
+        <v>77661562797.2</v>
       </c>
     </row>
     <row r="1120">
@@ -23956,7 +23956,7 @@
         <v>3134898978.61</v>
       </c>
       <c r="E1120" t="n">
-        <v>80551183360.94</v>
+        <v>80551181475.73</v>
       </c>
     </row>
     <row r="1121">
@@ -23977,7 +23977,7 @@
         <v>2420812427.98</v>
       </c>
       <c r="E1121" t="n">
-        <v>76586300939.81</v>
+        <v>76586299147.39</v>
       </c>
     </row>
     <row r="1122">
@@ -23998,7 +23998,7 @@
         <v>2657809423.31</v>
       </c>
       <c r="E1122" t="n">
-        <v>74394714999.88</v>
+        <v>74394713258.75999</v>
       </c>
     </row>
     <row r="1123">
@@ -24019,7 +24019,7 @@
         <v>1163447784.53</v>
       </c>
       <c r="E1123" t="n">
-        <v>75570531822.36</v>
+        <v>75570530053.72</v>
       </c>
     </row>
     <row r="1124">
@@ -24040,7 +24040,7 @@
         <v>1310561237.98</v>
       </c>
       <c r="E1124" t="n">
-        <v>78365742552.44</v>
+        <v>78365740718.38</v>
       </c>
     </row>
     <row r="1125">
@@ -24061,7 +24061,7 @@
         <v>2454137648.17</v>
       </c>
       <c r="E1125" t="n">
-        <v>74488629774.33</v>
+        <v>74488628031.00999</v>
       </c>
     </row>
     <row r="1126">
@@ -24082,7 +24082,7 @@
         <v>4344910154.55</v>
       </c>
       <c r="E1126" t="n">
-        <v>71503411400.23</v>
+        <v>71503409726.77</v>
       </c>
     </row>
     <row r="1127">
@@ -24103,7 +24103,7 @@
         <v>2636123561.81</v>
       </c>
       <c r="E1127" t="n">
-        <v>70431924073.17999</v>
+        <v>70431922424.8</v>
       </c>
     </row>
     <row r="1128">
@@ -24124,7 +24124,7 @@
         <v>2560257578.87</v>
       </c>
       <c r="E1128" t="n">
-        <v>69412128164.24001</v>
+        <v>69412126539.73</v>
       </c>
     </row>
     <row r="1129">
@@ -24145,7 +24145,7 @@
         <v>2427905741.27</v>
       </c>
       <c r="E1129" t="n">
-        <v>69969081877.47</v>
+        <v>69969080239.92</v>
       </c>
     </row>
     <row r="1130">
@@ -24166,7 +24166,7 @@
         <v>1097684600.3</v>
       </c>
       <c r="E1130" t="n">
-        <v>69434763301.42</v>
+        <v>69434761676.38</v>
       </c>
     </row>
     <row r="1131">
@@ -24187,7 +24187,7 @@
         <v>1252604454.8</v>
       </c>
       <c r="E1131" t="n">
-        <v>66862130646.79</v>
+        <v>66862129081.96</v>
       </c>
     </row>
     <row r="1132">
@@ -24208,7 +24208,7 @@
         <v>3858603868.95</v>
       </c>
       <c r="E1132" t="n">
-        <v>68837459019.78</v>
+        <v>68837457408.71001</v>
       </c>
     </row>
     <row r="1133">
@@ -24229,7 +24229,7 @@
         <v>2814099573.87</v>
       </c>
       <c r="E1133" t="n">
-        <v>71009645625.13</v>
+        <v>71009643963.23</v>
       </c>
     </row>
     <row r="1134">
@@ -24250,7 +24250,7 @@
         <v>1948967423.65</v>
       </c>
       <c r="E1134" t="n">
-        <v>70972073300.23</v>
+        <v>70972071639.2</v>
       </c>
     </row>
     <row r="1135">
@@ -24271,7 +24271,7 @@
         <v>3176696321.95</v>
       </c>
       <c r="E1135" t="n">
-        <v>77624586233.07001</v>
+        <v>77624584416.36</v>
       </c>
     </row>
     <row r="1136">
@@ -24292,7 +24292,7 @@
         <v>2594297845.8</v>
       </c>
       <c r="E1136" t="n">
-        <v>72680520078.7</v>
+        <v>72680518377.7</v>
       </c>
     </row>
     <row r="1137">
@@ -24313,7 +24313,7 @@
         <v>1346294362.19</v>
       </c>
       <c r="E1137" t="n">
-        <v>72753838067.27</v>
+        <v>72753836364.55</v>
       </c>
     </row>
     <row r="1138">
@@ -24334,7 +24334,7 @@
         <v>1780441975.61</v>
       </c>
       <c r="E1138" t="n">
-        <v>76167054391.12</v>
+        <v>76167052608.50999</v>
       </c>
     </row>
     <row r="1139">
@@ -24355,7 +24355,7 @@
         <v>2006890597.15</v>
       </c>
       <c r="E1139" t="n">
-        <v>76124755325.89999</v>
+        <v>76124753544.28</v>
       </c>
     </row>
     <row r="1140">
@@ -24376,7 +24376,7 @@
         <v>2426999726.93</v>
       </c>
       <c r="E1140" t="n">
-        <v>79917717328.60001</v>
+        <v>79917715458.22</v>
       </c>
     </row>
     <row r="1141">
@@ -24397,7 +24397,7 @@
         <v>3214187013.5</v>
       </c>
       <c r="E1141" t="n">
-        <v>73199776639.56</v>
+        <v>73199774926.39999</v>
       </c>
     </row>
     <row r="1142">
@@ -24418,7 +24418,7 @@
         <v>3791021538.33</v>
       </c>
       <c r="E1142" t="n">
-        <v>66547203902.41</v>
+        <v>66547202344.95</v>
       </c>
     </row>
     <row r="1143">
@@ -24439,7 +24439,7 @@
         <v>5884811589.17</v>
       </c>
       <c r="E1143" t="n">
-        <v>69920477241.34</v>
+        <v>69920475604.92999</v>
       </c>
     </row>
     <row r="1144">
@@ -24460,7 +24460,7 @@
         <v>2489336508.55</v>
       </c>
       <c r="E1144" t="n">
-        <v>74436152283.89</v>
+        <v>74436150541.78999</v>
       </c>
     </row>
     <row r="1145">
@@ -24481,7 +24481,7 @@
         <v>2189333148.68</v>
       </c>
       <c r="E1145" t="n">
-        <v>68585312992.45</v>
+        <v>68585311387.29</v>
       </c>
     </row>
     <row r="1146">
@@ -24502,7 +24502,7 @@
         <v>4080257370.58</v>
       </c>
       <c r="E1146" t="n">
-        <v>72468158066.55</v>
+        <v>72468156370.52</v>
       </c>
     </row>
     <row r="1147">
@@ -24523,7 +24523,7 @@
         <v>2918129762.13</v>
       </c>
       <c r="E1147" t="n">
-        <v>73580987615.87</v>
+        <v>73580985893.78999</v>
       </c>
     </row>
     <row r="1148">
@@ -24544,7 +24544,7 @@
         <v>2267417219.92</v>
       </c>
       <c r="E1148" t="n">
-        <v>73823171361.55</v>
+        <v>73823169633.8</v>
       </c>
     </row>
     <row r="1149">
@@ -24565,7 +24565,7 @@
         <v>2968505762.68</v>
       </c>
       <c r="E1149" t="n">
-        <v>70780974189.28</v>
+        <v>70780972532.73</v>
       </c>
     </row>
     <row r="1150">
@@ -24586,7 +24586,7 @@
         <v>2492119021.14</v>
       </c>
       <c r="E1150" t="n">
-        <v>72491307864.22</v>
+        <v>72491306167.64999</v>
       </c>
     </row>
     <row r="1151">
@@ -24607,7 +24607,7 @@
         <v>1319666582.89</v>
       </c>
       <c r="E1151" t="n">
-        <v>73694475601.82001</v>
+        <v>73694473877.08</v>
       </c>
     </row>
     <row r="1152">
@@ -24628,7 +24628,7 @@
         <v>2482805432.38</v>
       </c>
       <c r="E1152" t="n">
-        <v>76960900426.28</v>
+        <v>76960898625.10001</v>
       </c>
     </row>
     <row r="1153">
@@ -24649,7 +24649,7 @@
         <v>3109645281.75</v>
       </c>
       <c r="E1153" t="n">
-        <v>83186769321.44</v>
+        <v>83186767374.55</v>
       </c>
     </row>
     <row r="1154">
@@ -24670,7 +24670,7 @@
         <v>3487082045.51</v>
       </c>
       <c r="E1154" t="n">
-        <v>83633420225.19</v>
+        <v>83633418267.84</v>
       </c>
     </row>
     <row r="1155">
@@ -24691,7 +24691,7 @@
         <v>2719714237.76</v>
       </c>
       <c r="E1155" t="n">
-        <v>80834446257.50999</v>
+        <v>80834444365.67</v>
       </c>
     </row>
     <row r="1156">
@@ -24712,7 +24712,7 @@
         <v>2617149109.5</v>
       </c>
       <c r="E1156" t="n">
-        <v>82713794022.42999</v>
+        <v>82713792086.61</v>
       </c>
     </row>
     <row r="1157">
@@ -24733,7 +24733,7 @@
         <v>4472680911.65</v>
       </c>
       <c r="E1157" t="n">
-        <v>88020369257.33</v>
+        <v>88020367197.31</v>
       </c>
     </row>
     <row r="1158">
@@ -24754,7 +24754,7 @@
         <v>2111299630.43</v>
       </c>
       <c r="E1158" t="n">
-        <v>90561550208.27</v>
+        <v>90561548088.78</v>
       </c>
     </row>
     <row r="1159">
@@ -24775,7 +24775,7 @@
         <v>4015804659.37</v>
       </c>
       <c r="E1159" t="n">
-        <v>95945048564.25</v>
+        <v>95945046318.75999</v>
       </c>
     </row>
     <row r="1160">
@@ -24796,7 +24796,7 @@
         <v>3355000351.4</v>
       </c>
       <c r="E1160" t="n">
-        <v>93099551863.22</v>
+        <v>93099549684.33</v>
       </c>
     </row>
     <row r="1161">
@@ -24817,7 +24817,7 @@
         <v>3948271727.5</v>
       </c>
       <c r="E1161" t="n">
-        <v>90005809774.48</v>
+        <v>90005807667.99001</v>
       </c>
     </row>
     <row r="1162">
@@ -24838,7 +24838,7 @@
         <v>3972470238.3</v>
       </c>
       <c r="E1162" t="n">
-        <v>92599185099.77</v>
+        <v>92599182932.59</v>
       </c>
     </row>
     <row r="1163">
@@ -24859,7 +24859,7 @@
         <v>5008783465.49</v>
       </c>
       <c r="E1163" t="n">
-        <v>89310416236.05</v>
+        <v>89310414145.84</v>
       </c>
     </row>
     <row r="1164">
@@ -24880,7 +24880,7 @@
         <v>3292350432.04</v>
       </c>
       <c r="E1164" t="n">
-        <v>95234099776.99001</v>
+        <v>95234097548.14999</v>
       </c>
     </row>
     <row r="1165">
@@ -24901,7 +24901,7 @@
         <v>4036791400.47</v>
       </c>
       <c r="E1165" t="n">
-        <v>96058113048.09</v>
+        <v>96058110799.96001</v>
       </c>
     </row>
     <row r="1166">
@@ -24922,7 +24922,7 @@
         <v>2337276737.24</v>
       </c>
       <c r="E1166" t="n">
-        <v>96120400902.44</v>
+        <v>96120398652.85001</v>
       </c>
     </row>
     <row r="1167">
@@ -24943,7 +24943,7 @@
         <v>4625426991.76</v>
       </c>
       <c r="E1167" t="n">
-        <v>94952715233.13</v>
+        <v>94952713010.87</v>
       </c>
     </row>
     <row r="1168">
@@ -24964,7 +24964,7 @@
         <v>3282604319</v>
       </c>
       <c r="E1168" t="n">
-        <v>93129887213.33</v>
+        <v>93129885033.73</v>
       </c>
     </row>
     <row r="1169">
@@ -24985,7 +24985,7 @@
         <v>3584555338.84</v>
       </c>
       <c r="E1169" t="n">
-        <v>89454817726.99001</v>
+        <v>89454815633.39999</v>
       </c>
     </row>
     <row r="1170">
@@ -25006,7 +25006,7 @@
         <v>5413794223.97</v>
       </c>
       <c r="E1170" t="n">
-        <v>87329343902.11</v>
+        <v>87329341858.25999</v>
       </c>
     </row>
     <row r="1171">
@@ -25027,7 +25027,7 @@
         <v>5270915155.69</v>
       </c>
       <c r="E1171" t="n">
-        <v>79278673882.12</v>
+        <v>79278672026.7</v>
       </c>
     </row>
     <row r="1172">
@@ -25048,7 +25048,7 @@
         <v>4326247996.57</v>
       </c>
       <c r="E1172" t="n">
-        <v>74449881574.67</v>
+        <v>74449879832.25</v>
       </c>
     </row>
     <row r="1173">
@@ -25069,7 +25069,7 @@
         <v>5254540267.45</v>
       </c>
       <c r="E1173" t="n">
-        <v>71551288198.66</v>
+        <v>71551286524.09</v>
       </c>
     </row>
     <row r="1174">
@@ -25090,7 +25090,7 @@
         <v>16968925434.66</v>
       </c>
       <c r="E1174" t="n">
-        <v>67464181909.63</v>
+        <v>67464180330.71</v>
       </c>
     </row>
     <row r="1175">
@@ -25111,7 +25111,7 @@
         <v>6966233301.52</v>
       </c>
       <c r="E1175" t="n">
-        <v>74718248455.41</v>
+        <v>74718246706.71001</v>
       </c>
     </row>
     <row r="1176">
@@ -25132,7 +25132,7 @@
         <v>6502915916.99</v>
       </c>
       <c r="E1176" t="n">
-        <v>75497994127.81</v>
+        <v>75497992360.87</v>
       </c>
     </row>
     <row r="1177">
@@ -25153,7 +25153,7 @@
         <v>6758056552.04</v>
       </c>
       <c r="E1177" t="n">
-        <v>84811054751.23</v>
+        <v>84811052766.32001</v>
       </c>
     </row>
     <row r="1178">
@@ -25174,7 +25174,7 @@
         <v>3855610171.47</v>
       </c>
       <c r="E1178" t="n">
-        <v>81395922510.13</v>
+        <v>81395920605.14999</v>
       </c>
     </row>
     <row r="1179">
@@ -25195,7 +25195,7 @@
         <v>2125943908.78</v>
       </c>
       <c r="E1179" t="n">
-        <v>80049445713.32001</v>
+        <v>80049443839.85001</v>
       </c>
     </row>
     <row r="1180">
@@ -25216,7 +25216,7 @@
         <v>3023585724.11</v>
       </c>
       <c r="E1180" t="n">
-        <v>73588385002.50999</v>
+        <v>73588383280.25</v>
       </c>
     </row>
     <row r="1181">
@@ -25237,7 +25237,7 @@
         <v>4393744279.48</v>
       </c>
       <c r="E1181" t="n">
-        <v>76215688005.07001</v>
+        <v>76215686221.33</v>
       </c>
     </row>
     <row r="1182">
@@ -25258,7 +25258,7 @@
         <v>2815066563.41</v>
       </c>
       <c r="E1182" t="n">
-        <v>76345549214.28</v>
+        <v>76345547427.5</v>
       </c>
     </row>
     <row r="1183">
@@ -25279,7 +25279,7 @@
         <v>3299796280.89</v>
       </c>
       <c r="E1183" t="n">
-        <v>74834715780.82001</v>
+        <v>74834714029.39</v>
       </c>
     </row>
     <row r="1184">
@@ -25300,7 +25300,7 @@
         <v>3650888706.8</v>
       </c>
       <c r="E1184" t="n">
-        <v>74321992870.67999</v>
+        <v>74321991131.25</v>
       </c>
     </row>
     <row r="1185">
@@ -25321,7 +25321,7 @@
         <v>3346024393.68</v>
       </c>
       <c r="E1185" t="n">
-        <v>72366985337.12</v>
+        <v>72366983643.45</v>
       </c>
     </row>
     <row r="1186">
@@ -25342,7 +25342,7 @@
         <v>1510724675.1</v>
       </c>
       <c r="E1186" t="n">
-        <v>73701531976.37</v>
+        <v>73701530251.46001</v>
       </c>
     </row>
     <row r="1187">
@@ -25363,7 +25363,7 @@
         <v>2449782934.95</v>
       </c>
       <c r="E1187" t="n">
-        <v>74105842662.77</v>
+        <v>74105840928.41</v>
       </c>
     </row>
     <row r="1188">
@@ -25384,7 +25384,7 @@
         <v>2725980607.72</v>
       </c>
       <c r="E1188" t="n">
-        <v>75202203393.75</v>
+        <v>75202201633.73</v>
       </c>
     </row>
     <row r="1189">
@@ -25405,7 +25405,7 @@
         <v>2571440736.57</v>
       </c>
       <c r="E1189" t="n">
-        <v>74131719103.32001</v>
+        <v>74131717368.35001</v>
       </c>
     </row>
     <row r="1190">
@@ -25426,7 +25426,7 @@
         <v>2339708556.81</v>
       </c>
       <c r="E1190" t="n">
-        <v>74135900791.42999</v>
+        <v>74135899056.36</v>
       </c>
     </row>
     <row r="1191">
@@ -25447,7 +25447,7 @@
         <v>1680863862.99</v>
       </c>
       <c r="E1191" t="n">
-        <v>74515834408.42999</v>
+        <v>74515832664.47</v>
       </c>
     </row>
     <row r="1192">
@@ -25468,7 +25468,7 @@
         <v>3449069389.13</v>
       </c>
       <c r="E1192" t="n">
-        <v>79548147004.56</v>
+        <v>79548145142.82001</v>
       </c>
     </row>
     <row r="1193">
@@ -25489,7 +25489,7 @@
         <v>3689677142.44</v>
       </c>
       <c r="E1193" t="n">
-        <v>83559399685.75999</v>
+        <v>83559397730.14999</v>
       </c>
     </row>
     <row r="1194">
@@ -25510,7 +25510,7 @@
         <v>2152634485.42</v>
       </c>
       <c r="E1194" t="n">
-        <v>82515326527.24001</v>
+        <v>82515324596.06</v>
       </c>
     </row>
     <row r="1195">
@@ -25531,7 +25531,7 @@
         <v>3208083624.89</v>
       </c>
       <c r="E1195" t="n">
-        <v>81686355401.85001</v>
+        <v>81686353490.08</v>
       </c>
     </row>
     <row r="1196">
@@ -25552,7 +25552,7 @@
         <v>3533217490.51</v>
       </c>
       <c r="E1196" t="n">
-        <v>76372840187.48</v>
+        <v>76372838400.05</v>
       </c>
     </row>
     <row r="1197">
@@ -25573,7 +25573,7 @@
         <v>3755527847.85</v>
       </c>
       <c r="E1197" t="n">
-        <v>74816954086.63</v>
+        <v>74816952335.63</v>
       </c>
     </row>
     <row r="1198">
@@ -25594,7 +25594,7 @@
         <v>2485174112.85</v>
       </c>
       <c r="E1198" t="n">
-        <v>72784569037.77</v>
+        <v>72784567334.33</v>
       </c>
     </row>
     <row r="1199">
@@ -25615,7 +25615,7 @@
         <v>3520846804.22</v>
       </c>
       <c r="E1199" t="n">
-        <v>71897051939.17999</v>
+        <v>71897050256.50999</v>
       </c>
     </row>
     <row r="1200">
@@ -25636,7 +25636,7 @@
         <v>1100650505.51</v>
       </c>
       <c r="E1200" t="n">
-        <v>70378134716.91</v>
+        <v>70378133069.78999</v>
       </c>
     </row>
     <row r="1201">
@@ -25657,7 +25657,7 @@
         <v>2592581489.91</v>
       </c>
       <c r="E1201" t="n">
-        <v>66992579922.36</v>
+        <v>66992578354.47</v>
       </c>
     </row>
     <row r="1202">
@@ -25678,7 +25678,7 @@
         <v>2686355117.8</v>
       </c>
       <c r="E1202" t="n">
-        <v>70214246570.71001</v>
+        <v>70214244927.42999</v>
       </c>
     </row>
     <row r="1203">
@@ -25699,7 +25699,7 @@
         <v>2173659978.95</v>
       </c>
       <c r="E1203" t="n">
-        <v>66364070019.55</v>
+        <v>66364068466.37</v>
       </c>
     </row>
     <row r="1204">
@@ -25720,7 +25720,7 @@
         <v>3336191234.19</v>
       </c>
       <c r="E1204" t="n">
-        <v>69477466370.98</v>
+        <v>69477464744.94</v>
       </c>
     </row>
     <row r="1205">
@@ -25741,7 +25741,7 @@
         <v>2564083516.3</v>
       </c>
       <c r="E1205" t="n">
-        <v>67243644618.23</v>
+        <v>67243643044.46</v>
       </c>
     </row>
     <row r="1206">
@@ -25762,7 +25762,7 @@
         <v>4234656649.95</v>
       </c>
       <c r="E1206" t="n">
-        <v>64962315851.33</v>
+        <v>64962314330.96</v>
       </c>
     </row>
     <row r="1207">
@@ -25783,7 +25783,7 @@
         <v>1696685412.63</v>
       </c>
       <c r="E1207" t="n">
-        <v>66418665428.74</v>
+        <v>66418663874.28</v>
       </c>
     </row>
     <row r="1208">
@@ -25804,7 +25804,7 @@
         <v>1689463330.63</v>
       </c>
       <c r="E1208" t="n">
-        <v>67580410647.86</v>
+        <v>67580409066.22</v>
       </c>
     </row>
     <row r="1209">
@@ -25825,7 +25825,7 @@
         <v>2931030209.74</v>
       </c>
       <c r="E1209" t="n">
-        <v>70159523992.06</v>
+        <v>70159522350.05</v>
       </c>
     </row>
     <row r="1210">
@@ -25846,7 +25846,7 @@
         <v>2072831875.2</v>
       </c>
       <c r="E1210" t="n">
-        <v>70500644246.58</v>
+        <v>70500642596.59</v>
       </c>
     </row>
     <row r="1211">
@@ -25867,7 +25867,7 @@
         <v>2671734090.66</v>
       </c>
       <c r="E1211" t="n">
-        <v>68975306108.94</v>
+        <v>68975304494.64999</v>
       </c>
     </row>
     <row r="1212">
@@ -25888,7 +25888,7 @@
         <v>1924374547.7</v>
       </c>
       <c r="E1212" t="n">
-        <v>70851192474.17999</v>
+        <v>70851190815.99001</v>
       </c>
     </row>
     <row r="1213">
@@ -25909,7 +25909,7 @@
         <v>2224225923.4</v>
       </c>
       <c r="E1213" t="n">
-        <v>72289041299.47</v>
+        <v>72289039607.62</v>
       </c>
     </row>
     <row r="1214">
@@ -25930,7 +25930,7 @@
         <v>1141559407.44</v>
       </c>
       <c r="E1214" t="n">
-        <v>71358371204.58</v>
+        <v>71358369534.52</v>
       </c>
     </row>
     <row r="1215">
@@ -25951,7 +25951,7 @@
         <v>1781296503.15</v>
       </c>
       <c r="E1215" t="n">
-        <v>68465480929.86</v>
+        <v>68465479327.5</v>
       </c>
     </row>
     <row r="1216">
@@ -25972,7 +25972,7 @@
         <v>2079969051.57</v>
       </c>
       <c r="E1216" t="n">
-        <v>68412284243.73</v>
+        <v>68412282642.62</v>
       </c>
     </row>
     <row r="1217">
@@ -25993,7 +25993,7 @@
         <v>2150547014.16</v>
       </c>
       <c r="E1217" t="n">
-        <v>68412792370.39</v>
+        <v>68412790769.26</v>
       </c>
     </row>
     <row r="1218">
@@ -26014,7 +26014,7 @@
         <v>2755309741.19</v>
       </c>
       <c r="E1218" t="n">
-        <v>69501227226.41</v>
+        <v>69501225599.81</v>
       </c>
     </row>
     <row r="1219">
@@ -26035,7 +26035,7 @@
         <v>3564421946.26</v>
       </c>
       <c r="E1219" t="n">
-        <v>74220101952.33</v>
+        <v>74220100215.28999</v>
       </c>
     </row>
     <row r="1220">
@@ -26056,7 +26056,7 @@
         <v>3882733732.26</v>
       </c>
       <c r="E1220" t="n">
-        <v>76193130947.39</v>
+        <v>76193129164.17</v>
       </c>
     </row>
     <row r="1221">
@@ -26077,7 +26077,7 @@
         <v>1873292317.75</v>
       </c>
       <c r="E1221" t="n">
-        <v>77852250991.17999</v>
+        <v>77852249169.13</v>
       </c>
     </row>
     <row r="1222">
@@ -26098,7 +26098,7 @@
         <v>2044307162.04</v>
       </c>
       <c r="E1222" t="n">
-        <v>75340531440.24001</v>
+        <v>75340529676.98</v>
       </c>
     </row>
     <row r="1223">
@@ -26119,7 +26119,7 @@
         <v>2886324907.6</v>
       </c>
       <c r="E1223" t="n">
-        <v>75364651906.19</v>
+        <v>75364650142.36</v>
       </c>
     </row>
     <row r="1224">
@@ -26140,7 +26140,7 @@
         <v>3787418563.39</v>
       </c>
       <c r="E1224" t="n">
-        <v>79526534242.41</v>
+        <v>79526532381.17999</v>
       </c>
     </row>
     <row r="1225">
@@ -26161,7 +26161,7 @@
         <v>2721186645.01</v>
       </c>
       <c r="E1225" t="n">
-        <v>77040721748.98</v>
+        <v>77040719945.92</v>
       </c>
     </row>
     <row r="1226">
@@ -26182,7 +26182,7 @@
         <v>3823684872.57</v>
       </c>
       <c r="E1226" t="n">
-        <v>80868001797.3</v>
+        <v>80867999904.67</v>
       </c>
     </row>
     <row r="1227">
@@ -26203,7 +26203,7 @@
         <v>3684393153.83</v>
       </c>
       <c r="E1227" t="n">
-        <v>82080944533.96001</v>
+        <v>82080942612.95</v>
       </c>
     </row>
     <row r="1228">
@@ -26224,7 +26224,7 @@
         <v>1727901443.7</v>
       </c>
       <c r="E1228" t="n">
-        <v>81644580358.5</v>
+        <v>81644578447.7</v>
       </c>
     </row>
     <row r="1229">
@@ -26245,7 +26245,7 @@
         <v>2258758247.19</v>
       </c>
       <c r="E1229" t="n">
-        <v>82510321394.47</v>
+        <v>82510319463.41</v>
       </c>
     </row>
     <row r="1230">
@@ -26266,7 +26266,7 @@
         <v>2919586309.55</v>
       </c>
       <c r="E1230" t="n">
-        <v>79348037888.50999</v>
+        <v>79348036031.46001</v>
       </c>
     </row>
     <row r="1231">
@@ -26287,7 +26287,7 @@
         <v>4888868006.42</v>
       </c>
       <c r="E1231" t="n">
-        <v>75532592548.39999</v>
+        <v>75532590780.64</v>
       </c>
     </row>
     <row r="1232">
@@ -26308,7 +26308,7 @@
         <v>3403092048.77</v>
       </c>
       <c r="E1232" t="n">
-        <v>73056331706.46001</v>
+        <v>73056329996.66</v>
       </c>
     </row>
     <row r="1233">
@@ -26329,7 +26329,7 @@
         <v>3660493468.51</v>
       </c>
       <c r="E1233" t="n">
-        <v>71082568289.71001</v>
+        <v>71082566626.10001</v>
       </c>
     </row>
     <row r="1234">
@@ -26350,7 +26350,7 @@
         <v>3107174327.53</v>
       </c>
       <c r="E1234" t="n">
-        <v>74469273714.8</v>
+        <v>74469271971.92999</v>
       </c>
     </row>
     <row r="1235">
@@ -26371,7 +26371,7 @@
         <v>1404635947.71</v>
       </c>
       <c r="E1235" t="n">
-        <v>74248670409.28999</v>
+        <v>74248668671.58</v>
       </c>
     </row>
     <row r="1236">
@@ -26392,7 +26392,7 @@
         <v>1447038882.23</v>
       </c>
       <c r="E1236" t="n">
-        <v>76125357789.14999</v>
+        <v>76125356007.52</v>
       </c>
     </row>
     <row r="1237">
@@ -26413,7 +26413,7 @@
         <v>3411951971.01</v>
       </c>
       <c r="E1237" t="n">
-        <v>75014348466.13</v>
+        <v>75014346710.5</v>
       </c>
     </row>
     <row r="1238">
@@ -26434,7 +26434,7 @@
         <v>2021753886.71</v>
       </c>
       <c r="E1238" t="n">
-        <v>74609240943.85001</v>
+        <v>74609239197.7</v>
       </c>
     </row>
     <row r="1239">
@@ -26455,7 +26455,7 @@
         <v>2070835887.68</v>
       </c>
       <c r="E1239" t="n">
-        <v>72472663957.73</v>
+        <v>72472662261.59</v>
       </c>
     </row>
     <row r="1240">
@@ -26476,7 +26476,7 @@
         <v>2066229153.78</v>
       </c>
       <c r="E1240" t="n">
-        <v>72179189457.34</v>
+        <v>72179187768.07001</v>
       </c>
     </row>
     <row r="1241">
@@ -26497,7 +26497,7 @@
         <v>2171464128.92</v>
       </c>
       <c r="E1241" t="n">
-        <v>75589487731.63</v>
+        <v>75589485962.53999</v>
       </c>
     </row>
     <row r="1242">
@@ -26518,7 +26518,7 @@
         <v>1342624320.03</v>
       </c>
       <c r="E1242" t="n">
-        <v>76246309751.81</v>
+        <v>76246307967.35001</v>
       </c>
     </row>
     <row r="1243">
@@ -26539,7 +26539,7 @@
         <v>1681570122.02</v>
       </c>
       <c r="E1243" t="n">
-        <v>76720298794.36</v>
+        <v>76720296998.81</v>
       </c>
     </row>
     <row r="1244">
@@ -26560,7 +26560,7 @@
         <v>3436470403.89</v>
       </c>
       <c r="E1244" t="n">
-        <v>81845814712.49001</v>
+        <v>81845812796.98</v>
       </c>
     </row>
     <row r="1245">
@@ -26581,7 +26581,7 @@
         <v>4033304497.25</v>
       </c>
       <c r="E1245" t="n">
-        <v>80429251990.53999</v>
+        <v>80429250108.17999</v>
       </c>
     </row>
     <row r="1246">
@@ -26602,7 +26602,7 @@
         <v>2755639617.51</v>
       </c>
       <c r="E1246" t="n">
-        <v>80242490243.7</v>
+        <v>80242488365.72</v>
       </c>
     </row>
     <row r="1247">
@@ -26623,7 +26623,7 @@
         <v>2717600021.31</v>
       </c>
       <c r="E1247" t="n">
-        <v>78166757447.27</v>
+        <v>78166755617.87</v>
       </c>
     </row>
     <row r="1248">
@@ -26644,7 +26644,7 @@
         <v>2035291815.77</v>
       </c>
       <c r="E1248" t="n">
-        <v>80663387581.71001</v>
+        <v>80663385693.87</v>
       </c>
     </row>
     <row r="1249">
@@ -26665,7 +26665,7 @@
         <v>1863265086.56</v>
       </c>
       <c r="E1249" t="n">
-        <v>83014496378.74001</v>
+        <v>83014494435.88</v>
       </c>
     </row>
     <row r="1250">
@@ -26686,7 +26686,7 @@
         <v>3153223457.13</v>
       </c>
       <c r="E1250" t="n">
-        <v>86645714277.89</v>
+        <v>86645712250.03999</v>
       </c>
     </row>
     <row r="1251">
@@ -26707,7 +26707,7 @@
         <v>4851472927.71</v>
       </c>
       <c r="E1251" t="n">
-        <v>86542957423.09</v>
+        <v>86542955397.64999</v>
       </c>
     </row>
     <row r="1252">
@@ -26728,7 +26728,7 @@
         <v>4409925954.92</v>
       </c>
       <c r="E1252" t="n">
-        <v>86977459026.71001</v>
+        <v>86977456991.10001</v>
       </c>
     </row>
     <row r="1253">
@@ -26749,7 +26749,7 @@
         <v>4820717293.72</v>
       </c>
       <c r="E1253" t="n">
-        <v>89111463586.13</v>
+        <v>89111461500.58</v>
       </c>
     </row>
     <row r="1254">
@@ -26770,7 +26770,7 @@
         <v>4352868535.96</v>
       </c>
       <c r="E1254" t="n">
-        <v>92263223912.39999</v>
+        <v>92263221753.09</v>
       </c>
     </row>
     <row r="1255">
@@ -26791,7 +26791,7 @@
         <v>6060843281</v>
       </c>
       <c r="E1255" t="n">
-        <v>85486359911.57001</v>
+        <v>85486357910.86</v>
       </c>
     </row>
     <row r="1256">
@@ -26812,7 +26812,7 @@
         <v>3465680935.55</v>
       </c>
       <c r="E1256" t="n">
-        <v>88719493051.38</v>
+        <v>88719490975</v>
       </c>
     </row>
     <row r="1257">
@@ -26833,7 +26833,7 @@
         <v>3262906486.53</v>
       </c>
       <c r="E1257" t="n">
-        <v>91874611697.73</v>
+        <v>91874609547.50999</v>
       </c>
     </row>
     <row r="1258">
@@ -26854,7 +26854,7 @@
         <v>4573928546.78</v>
       </c>
       <c r="E1258" t="n">
-        <v>92662396851.35001</v>
+        <v>92662394682.69</v>
       </c>
     </row>
     <row r="1259">
@@ -26875,7 +26875,7 @@
         <v>4626744759.96</v>
       </c>
       <c r="E1259" t="n">
-        <v>93301238724.94</v>
+        <v>93301236541.33</v>
       </c>
     </row>
     <row r="1260">
@@ -26896,7 +26896,7 @@
         <v>3787670946.35</v>
       </c>
       <c r="E1260" t="n">
-        <v>91069987593.61</v>
+        <v>91069985462.22</v>
       </c>
     </row>
     <row r="1261">
@@ -26917,7 +26917,7 @@
         <v>3406710809.99</v>
       </c>
       <c r="E1261" t="n">
-        <v>87597065318.71001</v>
+        <v>87597063268.60001</v>
       </c>
     </row>
     <row r="1262">
@@ -26938,7 +26938,7 @@
         <v>3797335906.93</v>
       </c>
       <c r="E1262" t="n">
-        <v>86497274546.25</v>
+        <v>86497272521.88</v>
       </c>
     </row>
     <row r="1263">
@@ -26959,7 +26959,7 @@
         <v>1957197289.8</v>
       </c>
       <c r="E1263" t="n">
-        <v>86344771427.09</v>
+        <v>86344769406.28</v>
       </c>
     </row>
     <row r="1264">
@@ -26980,7 +26980,7 @@
         <v>3328092038.8</v>
       </c>
       <c r="E1264" t="n">
-        <v>84614125928.14999</v>
+        <v>84614123947.85001</v>
       </c>
     </row>
     <row r="1265">
@@ -27001,7 +27001,7 @@
         <v>3431380035.96</v>
       </c>
       <c r="E1265" t="n">
-        <v>81981730543.88</v>
+        <v>81981728625.19</v>
       </c>
     </row>
     <row r="1266">
@@ -27022,7 +27022,7 @@
         <v>4231343887.37</v>
       </c>
       <c r="E1266" t="n">
-        <v>86613388743.3</v>
+        <v>86613386716.21001</v>
       </c>
     </row>
     <row r="1267">
@@ -27043,7 +27043,7 @@
         <v>12310513296.17</v>
       </c>
       <c r="E1267" t="n">
-        <v>97358484779.13</v>
+        <v>97358482500.57001</v>
       </c>
     </row>
     <row r="1268">
@@ -27064,7 +27064,7 @@
         <v>6091288676.38</v>
       </c>
       <c r="E1268" t="n">
-        <v>102057655660.17</v>
+        <v>102057653271.63</v>
       </c>
     </row>
     <row r="1269">
@@ -27085,7 +27085,7 @@
         <v>7260188189.93</v>
       </c>
       <c r="E1269" t="n">
-        <v>103946284451.26</v>
+        <v>103946282018.52</v>
       </c>
     </row>
     <row r="1270">
@@ -27106,7 +27106,7 @@
         <v>4159056437.73</v>
       </c>
       <c r="E1270" t="n">
-        <v>104120645733.35</v>
+        <v>104120643296.52</v>
       </c>
     </row>
     <row r="1271">
@@ -27127,7 +27127,7 @@
         <v>11110901193.49</v>
       </c>
       <c r="E1271" t="n">
-        <v>109332318198.37</v>
+        <v>109332315639.57</v>
       </c>
     </row>
     <row r="1272">
@@ -27148,7 +27148,7 @@
         <v>12984443505.9</v>
       </c>
       <c r="E1272" t="n">
-        <v>115811463861.39</v>
+        <v>115811461150.95</v>
       </c>
     </row>
     <row r="1273">
@@ -27169,7 +27169,7 @@
         <v>13290465438.16</v>
       </c>
       <c r="E1273" t="n">
-        <v>110830105743.4</v>
+        <v>110830103149.55</v>
       </c>
     </row>
     <row r="1274">
@@ -27190,7 +27190,7 @@
         <v>13805972977.97</v>
       </c>
       <c r="E1274" t="n">
-        <v>111878618706.84</v>
+        <v>111878616088.44</v>
       </c>
     </row>
     <row r="1275">
@@ -27211,7 +27211,7 @@
         <v>10550722956.67</v>
       </c>
       <c r="E1275" t="n">
-        <v>108905891701.53</v>
+        <v>108905889152.71</v>
       </c>
     </row>
     <row r="1276">
@@ -27232,7 +27232,7 @@
         <v>7498818405.35</v>
       </c>
       <c r="E1276" t="n">
-        <v>113960665362.51</v>
+        <v>113960662695.39</v>
       </c>
     </row>
     <row r="1277">
@@ -27253,7 +27253,7 @@
         <v>5969522661.83</v>
       </c>
       <c r="E1277" t="n">
-        <v>112384036504</v>
+        <v>112384033873.77</v>
       </c>
     </row>
     <row r="1278">
@@ -27274,7 +27274,7 @@
         <v>12972061001.98</v>
       </c>
       <c r="E1278" t="n">
-        <v>123521743701.76</v>
+        <v>123521740810.88</v>
       </c>
     </row>
     <row r="1279">
@@ -27295,7 +27295,7 @@
         <v>10983854913.15</v>
       </c>
       <c r="E1279" t="n">
-        <v>124723775263.58</v>
+        <v>124723772344.56</v>
       </c>
     </row>
     <row r="1280">
@@ -27316,7 +27316,7 @@
         <v>8433368277.46</v>
       </c>
       <c r="E1280" t="n">
-        <v>123754119021.59</v>
+        <v>123754116125.26</v>
       </c>
     </row>
     <row r="1281">
@@ -27337,7 +27337,7 @@
         <v>8823415601.790001</v>
       </c>
       <c r="E1281" t="n">
-        <v>122779765365.06</v>
+        <v>122779762491.54</v>
       </c>
     </row>
     <row r="1282">
@@ -27358,7 +27358,7 @@
         <v>14028640651.23</v>
       </c>
       <c r="E1282" t="n">
-        <v>133812769997.52</v>
+        <v>133812766865.79</v>
       </c>
     </row>
     <row r="1283">
@@ -27379,7 +27379,7 @@
         <v>9312488228.35</v>
       </c>
       <c r="E1283" t="n">
-        <v>133291140261.95</v>
+        <v>133291137142.42</v>
       </c>
     </row>
     <row r="1284">
@@ -27400,7 +27400,7 @@
         <v>8833978840.18</v>
       </c>
       <c r="E1284" t="n">
-        <v>132485442046.56</v>
+        <v>132485438945.89</v>
       </c>
     </row>
     <row r="1285">
@@ -27421,7 +27421,7 @@
         <v>6901354952.31</v>
       </c>
       <c r="E1285" t="n">
-        <v>131934045998.01</v>
+        <v>131934042910.24</v>
       </c>
     </row>
     <row r="1286">
@@ -27442,7 +27442,7 @@
         <v>8666830055.469999</v>
       </c>
       <c r="E1286" t="n">
-        <v>121998164285.09</v>
+        <v>121998161429.86</v>
       </c>
     </row>
     <row r="1287">
@@ -27463,7 +27463,7 @@
         <v>9750668817.719999</v>
       </c>
       <c r="E1287" t="n">
-        <v>120043187096.82</v>
+        <v>120043184287.35</v>
       </c>
     </row>
     <row r="1288">
@@ -27484,7 +27484,7 @@
         <v>7109836475.67</v>
       </c>
       <c r="E1288" t="n">
-        <v>126122689024.15</v>
+        <v>126122686072.39</v>
       </c>
     </row>
     <row r="1289">
@@ -27505,7 +27505,7 @@
         <v>5255693436.09</v>
       </c>
       <c r="E1289" t="n">
-        <v>123618590286.91</v>
+        <v>123618587393.76</v>
       </c>
     </row>
     <row r="1290">
@@ -27526,7 +27526,7 @@
         <v>5755025280.66</v>
       </c>
       <c r="E1290" t="n">
-        <v>126764629507.9</v>
+        <v>126764626541.12</v>
       </c>
     </row>
     <row r="1291">
@@ -27547,7 +27547,7 @@
         <v>4804502975.57</v>
       </c>
       <c r="E1291" t="n">
-        <v>123884258527.52</v>
+        <v>123884255628.15</v>
       </c>
     </row>
     <row r="1292">
@@ -27568,7 +27568,7 @@
         <v>5045595846.95</v>
       </c>
       <c r="E1292" t="n">
-        <v>123563686990.45</v>
+        <v>123563684098.58</v>
       </c>
     </row>
     <row r="1293">
@@ -27589,7 +27589,7 @@
         <v>9899598134.99</v>
       </c>
       <c r="E1293" t="n">
-        <v>117311916044.36</v>
+        <v>117311913298.81</v>
       </c>
     </row>
     <row r="1294">
@@ -27610,7 +27610,7 @@
         <v>10452192112.24</v>
       </c>
       <c r="E1294" t="n">
-        <v>122234872978.27</v>
+        <v>122234870117.5</v>
       </c>
     </row>
     <row r="1295">
@@ -27631,7 +27631,7 @@
         <v>8783744907.42</v>
       </c>
       <c r="E1295" t="n">
-        <v>119152435047.11</v>
+        <v>119152432258.48</v>
       </c>
     </row>
     <row r="1296">
@@ -27652,7 +27652,7 @@
         <v>12602226714.28</v>
       </c>
       <c r="E1296" t="n">
-        <v>123435555026.38</v>
+        <v>123435552137.51</v>
       </c>
     </row>
     <row r="1297">
@@ -27673,7 +27673,7 @@
         <v>8922633455.4</v>
       </c>
       <c r="E1297" t="n">
-        <v>123282423688.28</v>
+        <v>123282420802.99</v>
       </c>
     </row>
     <row r="1298">
@@ -27694,7 +27694,7 @@
         <v>5251587540.53</v>
       </c>
       <c r="E1298" t="n">
-        <v>124263885580.17</v>
+        <v>124263882671.91</v>
       </c>
     </row>
     <row r="1299">
@@ -27715,7 +27715,7 @@
         <v>4395374812.78</v>
       </c>
       <c r="E1299" t="n">
-        <v>123579997982.63</v>
+        <v>123579995090.38</v>
       </c>
     </row>
     <row r="1300">
@@ -27736,7 +27736,7 @@
         <v>11429229527.74</v>
       </c>
       <c r="E1300" t="n">
-        <v>113196901324.14</v>
+        <v>113196898674.89</v>
       </c>
     </row>
     <row r="1301">
@@ -27757,7 +27757,7 @@
         <v>11187514118.86</v>
       </c>
       <c r="E1301" t="n">
-        <v>111069163879.25</v>
+        <v>111069161279.8</v>
       </c>
     </row>
     <row r="1302">
@@ -27778,7 +27778,7 @@
         <v>7555103206.12</v>
       </c>
       <c r="E1302" t="n">
-        <v>118115456421.58</v>
+        <v>118115453657.22</v>
       </c>
     </row>
     <row r="1303">
@@ -27799,7 +27799,7 @@
         <v>6550517085.99</v>
       </c>
       <c r="E1303" t="n">
-        <v>118090803774.82</v>
+        <v>118090801011.04</v>
       </c>
     </row>
     <row r="1304">
@@ -27820,7 +27820,7 @@
         <v>5161260053.7</v>
       </c>
       <c r="E1304" t="n">
-        <v>116826655495.96</v>
+        <v>116826652761.77</v>
       </c>
     </row>
     <row r="1305">
@@ -27841,7 +27841,7 @@
         <v>3877459092.6</v>
       </c>
       <c r="E1305" t="n">
-        <v>114369590946.36</v>
+        <v>114369588269.67</v>
       </c>
     </row>
     <row r="1306">
@@ -27862,7 +27862,7 @@
         <v>3942318066.52</v>
       </c>
       <c r="E1306" t="n">
-        <v>116796031111.86</v>
+        <v>116796028378.38</v>
       </c>
     </row>
     <row r="1307">
@@ -27883,7 +27883,7 @@
         <v>6624387280.01</v>
       </c>
       <c r="E1307" t="n">
-        <v>112623716732.51</v>
+        <v>112623714096.68</v>
       </c>
     </row>
     <row r="1308">
@@ -27904,7 +27904,7 @@
         <v>7985124597.63</v>
       </c>
       <c r="E1308" t="n">
-        <v>115861680258.1</v>
+        <v>115861677546.48</v>
       </c>
     </row>
     <row r="1309">
@@ -27925,7 +27925,7 @@
         <v>8480297085.51</v>
       </c>
       <c r="E1309" t="n">
-        <v>106822762251.92</v>
+        <v>106822759751.85</v>
       </c>
     </row>
     <row r="1310">
@@ -27946,7 +27946,7 @@
         <v>10468690590.8</v>
       </c>
       <c r="E1310" t="n">
-        <v>101381151337.74</v>
+        <v>101381148965.03</v>
       </c>
     </row>
     <row r="1311">
@@ -27967,7 +27967,7 @@
         <v>12107653719.18</v>
       </c>
       <c r="E1311" t="n">
-        <v>100975424316.18</v>
+        <v>100975421952.96</v>
       </c>
     </row>
     <row r="1312">
@@ -27988,7 +27988,7 @@
         <v>6815137488.71</v>
       </c>
       <c r="E1312" t="n">
-        <v>94164866638.64</v>
+        <v>94164864434.81</v>
       </c>
     </row>
     <row r="1313">
@@ -28009,7 +28009,7 @@
         <v>5182484546.12</v>
       </c>
       <c r="E1313" t="n">
-        <v>93709246992.89</v>
+        <v>93709244799.73</v>
       </c>
     </row>
     <row r="1314">
@@ -28030,7 +28030,7 @@
         <v>6301604625.53</v>
       </c>
       <c r="E1314" t="n">
-        <v>98749223851.25999</v>
+        <v>98749221540.14</v>
       </c>
     </row>
     <row r="1315">
@@ -28051,7 +28051,7 @@
         <v>4227931012.22</v>
       </c>
       <c r="E1315" t="n">
-        <v>102733061957.8</v>
+        <v>102733059553.45</v>
       </c>
     </row>
     <row r="1316">
@@ -28072,7 +28072,7 @@
         <v>3348485302.26</v>
       </c>
       <c r="E1316" t="n">
-        <v>102658508453.38</v>
+        <v>102658506050.78</v>
       </c>
     </row>
     <row r="1317">
@@ -28093,7 +28093,7 @@
         <v>3632161406.33</v>
       </c>
       <c r="E1317" t="n">
-        <v>97866181723.92999</v>
+        <v>97866179433.49001</v>
       </c>
     </row>
     <row r="1318">
@@ -28114,7 +28114,7 @@
         <v>3493249464.36</v>
       </c>
       <c r="E1318" t="n">
-        <v>95579587997.75999</v>
+        <v>95579585760.83</v>
       </c>
     </row>
     <row r="1319">
@@ -28135,7 +28135,7 @@
         <v>2617139754.42</v>
       </c>
       <c r="E1319" t="n">
-        <v>101342487252.36</v>
+        <v>101342484880.56</v>
       </c>
     </row>
     <row r="1320">
@@ -28156,7 +28156,7 @@
         <v>2637965244.61</v>
       </c>
       <c r="E1320" t="n">
-        <v>98794076018.67</v>
+        <v>98794073706.5</v>
       </c>
     </row>
     <row r="1321">
@@ -28177,7 +28177,7 @@
         <v>3958275830.34</v>
       </c>
       <c r="E1321" t="n">
-        <v>99195774367.38</v>
+        <v>99195772045.82001</v>
       </c>
     </row>
     <row r="1322">
@@ -28198,7 +28198,7 @@
         <v>3962483816.18</v>
       </c>
       <c r="E1322" t="n">
-        <v>98546098189.64</v>
+        <v>98546095883.28</v>
       </c>
     </row>
     <row r="1323">
@@ -28219,7 +28219,7 @@
         <v>2824600478.6</v>
       </c>
       <c r="E1323" t="n">
-        <v>100728245609.1</v>
+        <v>100728243251.67</v>
       </c>
     </row>
     <row r="1324">
@@ -28240,7 +28240,7 @@
         <v>5084254052.26</v>
       </c>
       <c r="E1324" t="n">
-        <v>108131145464.21</v>
+        <v>108131142933.52</v>
       </c>
     </row>
     <row r="1325">
@@ -28261,7 +28261,7 @@
         <v>4911221653.28</v>
       </c>
       <c r="E1325" t="n">
-        <v>113212460006.2</v>
+        <v>113212457356.59</v>
       </c>
     </row>
     <row r="1326">
@@ -28282,7 +28282,7 @@
         <v>3044194454.66</v>
       </c>
       <c r="E1326" t="n">
-        <v>112711207757.03</v>
+        <v>112711205119.15</v>
       </c>
     </row>
     <row r="1327">
@@ -28303,7 +28303,7 @@
         <v>3048234520.43</v>
       </c>
       <c r="E1327" t="n">
-        <v>111028259863.19</v>
+        <v>111028257264.7</v>
       </c>
     </row>
     <row r="1328">
@@ -28324,7 +28324,7 @@
         <v>4309097910.34</v>
       </c>
       <c r="E1328" t="n">
-        <v>113614904871.49</v>
+        <v>113614902212.46</v>
       </c>
     </row>
     <row r="1329">
@@ -28345,7 +28345,7 @@
         <v>5199767125.74</v>
       </c>
       <c r="E1329" t="n">
-        <v>105329495665.5</v>
+        <v>105329493200.38</v>
       </c>
     </row>
     <row r="1330">
@@ -28366,7 +28366,7 @@
         <v>5972330799.67</v>
       </c>
       <c r="E1330" t="n">
-        <v>102707616374.56</v>
+        <v>102707613970.81</v>
       </c>
     </row>
     <row r="1331">
@@ -28387,7 +28387,7 @@
         <v>4609352627.06</v>
       </c>
       <c r="E1331" t="n">
-        <v>96236281100.75999</v>
+        <v>96236278848.46001</v>
       </c>
     </row>
     <row r="1332">
@@ -28408,7 +28408,7 @@
         <v>4489439743.59</v>
       </c>
       <c r="E1332" t="n">
-        <v>97697414499.94</v>
+        <v>97697412213.44</v>
       </c>
     </row>
     <row r="1333">
@@ -28429,7 +28429,7 @@
         <v>2634148745.11</v>
       </c>
       <c r="E1333" t="n">
-        <v>97823884258.72</v>
+        <v>97823881969.25999</v>
       </c>
     </row>
     <row r="1334">
@@ -28450,7 +28450,7 @@
         <v>1635265225.56</v>
       </c>
       <c r="E1334" t="n">
-        <v>97994858334.45</v>
+        <v>97994856040.99001</v>
       </c>
     </row>
     <row r="1335">
@@ -28471,7 +28471,7 @@
         <v>6287216536.19</v>
       </c>
       <c r="E1335" t="n">
-        <v>95249608265.3</v>
+        <v>95249606036.09</v>
       </c>
     </row>
     <row r="1336">
@@ -28492,7 +28492,7 @@
         <v>3315788782.95</v>
       </c>
       <c r="E1336" t="n">
-        <v>97637287846.33</v>
+        <v>97637285561.24001</v>
       </c>
     </row>
     <row r="1337">
@@ -28513,7 +28513,7 @@
         <v>4804084650.37</v>
       </c>
       <c r="E1337" t="n">
-        <v>107028355106.62</v>
+        <v>107028352601.74</v>
       </c>
     </row>
     <row r="1338">
@@ -28534,7 +28534,7 @@
         <v>7068314924.71</v>
       </c>
       <c r="E1338" t="n">
-        <v>109876489272.34</v>
+        <v>109876486700.81</v>
       </c>
     </row>
     <row r="1339">
@@ -28555,7 +28555,7 @@
         <v>5970704168.9</v>
       </c>
       <c r="E1339" t="n">
-        <v>114321328884.62</v>
+        <v>114321326209.06</v>
       </c>
     </row>
     <row r="1340">
@@ -28576,7 +28576,7 @@
         <v>25509863876.61</v>
       </c>
       <c r="E1340" t="n">
-        <v>136575291354.74</v>
+        <v>136575288158.35</v>
       </c>
     </row>
     <row r="1341">
@@ -28597,7 +28597,7 @@
         <v>27745408600.28</v>
       </c>
       <c r="E1341" t="n">
-        <v>131068467312.6</v>
+        <v>131068464245.09</v>
       </c>
     </row>
     <row r="1342">
@@ -28618,7 +28618,7 @@
         <v>24105137275.24</v>
       </c>
       <c r="E1342" t="n">
-        <v>126125142774.49</v>
+        <v>126125139822.67</v>
       </c>
     </row>
     <row r="1343">
@@ -28639,7 +28639,7 @@
         <v>12579840532.32</v>
       </c>
       <c r="E1343" t="n">
-        <v>130248482288.69</v>
+        <v>130248479240.37</v>
       </c>
     </row>
     <row r="1344">
@@ -28660,7 +28660,7 @@
         <v>10328230618.35</v>
       </c>
       <c r="E1344" t="n">
-        <v>133221662931.72</v>
+        <v>133221659813.82</v>
       </c>
     </row>
     <row r="1345">
@@ -28681,7 +28681,7 @@
         <v>10816185398.47</v>
       </c>
       <c r="E1345" t="n">
-        <v>131859193663.23</v>
+        <v>131859190577.21</v>
       </c>
     </row>
     <row r="1346">
@@ -28702,7 +28702,7 @@
         <v>8592029753.26</v>
       </c>
       <c r="E1346" t="n">
-        <v>131927516030.52</v>
+        <v>131927512942.91</v>
       </c>
     </row>
     <row r="1347">
@@ -28723,7 +28723,7 @@
         <v>5803289041.24</v>
       </c>
       <c r="E1347" t="n">
-        <v>133721003105.02</v>
+        <v>133720999975.43</v>
       </c>
     </row>
     <row r="1348">
@@ -28744,7 +28744,7 @@
         <v>4718944732.49</v>
       </c>
       <c r="E1348" t="n">
-        <v>125394733701.14</v>
+        <v>125394730766.42</v>
       </c>
     </row>
     <row r="1349">
@@ -28765,7 +28765,7 @@
         <v>12684970731.87</v>
       </c>
       <c r="E1349" t="n">
-        <v>122227882370.31</v>
+        <v>122227879509.7</v>
       </c>
     </row>
     <row r="1350">
@@ -28786,7 +28786,7 @@
         <v>5786086231.18</v>
       </c>
       <c r="E1350" t="n">
-        <v>118019909830.01</v>
+        <v>118019907067.88</v>
       </c>
     </row>
     <row r="1351">
@@ -28807,7 +28807,7 @@
         <v>6211589569.14</v>
       </c>
       <c r="E1351" t="n">
-        <v>118917239065.06</v>
+        <v>118917236281.93</v>
       </c>
     </row>
     <row r="1352">
@@ -28828,7 +28828,7 @@
         <v>5322441765.57</v>
       </c>
       <c r="E1352" t="n">
-        <v>124343938873.64</v>
+        <v>124343935963.51</v>
       </c>
     </row>
     <row r="1353">
@@ -28849,7 +28849,7 @@
         <v>4767010236.44</v>
       </c>
       <c r="E1353" t="n">
-        <v>120422221722.56</v>
+        <v>120422218904.22</v>
       </c>
     </row>
     <row r="1354">
@@ -28870,7 +28870,7 @@
         <v>4126022505.96</v>
       </c>
       <c r="E1354" t="n">
-        <v>111556450192.25</v>
+        <v>111556447581.4</v>
       </c>
     </row>
     <row r="1355">
@@ -28891,7 +28891,7 @@
         <v>9577730751.6</v>
       </c>
       <c r="E1355" t="n">
-        <v>105242307102.96</v>
+        <v>105242304639.88</v>
       </c>
     </row>
     <row r="1356">
@@ -28912,7 +28912,7 @@
         <v>17185125725.03</v>
       </c>
       <c r="E1356" t="n">
-        <v>112330355588.81</v>
+        <v>112330352959.85</v>
       </c>
     </row>
     <row r="1357">
@@ -28933,7 +28933,7 @@
         <v>8488460261.02</v>
       </c>
       <c r="E1357" t="n">
-        <v>107894697878.55</v>
+        <v>107894695353.4</v>
       </c>
     </row>
     <row r="1358">
@@ -28954,7 +28954,7 @@
         <v>4519102616.63</v>
       </c>
       <c r="E1358" t="n">
-        <v>102065633169.2</v>
+        <v>102065630780.47</v>
       </c>
     </row>
     <row r="1359">
@@ -28975,7 +28975,7 @@
         <v>4544519196.98</v>
       </c>
       <c r="E1359" t="n">
-        <v>98513661475.60001</v>
+        <v>98513659170</v>
       </c>
     </row>
     <row r="1360">
@@ -28996,7 +28996,7 @@
         <v>5321325630.81</v>
       </c>
       <c r="E1360" t="n">
-        <v>100012590644.58</v>
+        <v>100012588303.9</v>
       </c>
     </row>
     <row r="1361">
@@ -29017,7 +29017,7 @@
         <v>2738591550.99</v>
       </c>
       <c r="E1361" t="n">
-        <v>103881798061.58</v>
+        <v>103881795630.34</v>
       </c>
     </row>
     <row r="1362">
@@ -29038,7 +29038,7 @@
         <v>3575183754.78</v>
       </c>
       <c r="E1362" t="n">
-        <v>104265134941.33</v>
+        <v>104265132501.12</v>
       </c>
     </row>
     <row r="1363">
@@ -29059,7 +29059,7 @@
         <v>4877446867.21</v>
       </c>
       <c r="E1363" t="n">
-        <v>104056808901.04</v>
+        <v>104056806465.71</v>
       </c>
     </row>
     <row r="1364">
@@ -29080,7 +29080,7 @@
         <v>4610068875.98</v>
       </c>
       <c r="E1364" t="n">
-        <v>102955779189.09</v>
+        <v>102955776779.53</v>
       </c>
     </row>
     <row r="1365">
@@ -29101,7 +29101,7 @@
         <v>4991943969.55</v>
       </c>
       <c r="E1365" t="n">
-        <v>102265968503.99</v>
+        <v>102265966110.57</v>
       </c>
     </row>
     <row r="1366">
@@ -29122,7 +29122,7 @@
         <v>3243643748.25</v>
       </c>
       <c r="E1366" t="n">
-        <v>101048864140.83</v>
+        <v>101048861775.9</v>
       </c>
     </row>
     <row r="1367">
@@ -29143,7 +29143,7 @@
         <v>4307573002.94</v>
       </c>
       <c r="E1367" t="n">
-        <v>103850965664.5</v>
+        <v>103850963233.98</v>
       </c>
     </row>
     <row r="1368">
@@ -29164,7 +29164,7 @@
         <v>2126185023.72</v>
       </c>
       <c r="E1368" t="n">
-        <v>101133276899.4</v>
+        <v>101133274532.49</v>
       </c>
     </row>
     <row r="1369">
@@ -29185,7 +29185,7 @@
         <v>2477404625.16</v>
       </c>
       <c r="E1369" t="n">
-        <v>97877114664.12</v>
+        <v>97877112373.42</v>
       </c>
     </row>
     <row r="1370">
@@ -29206,7 +29206,7 @@
         <v>4953743554.61</v>
       </c>
       <c r="E1370" t="n">
-        <v>92547707608.8</v>
+        <v>92547705442.82001</v>
       </c>
     </row>
     <row r="1371">
@@ -29227,7 +29227,7 @@
         <v>7430021942.54</v>
       </c>
       <c r="E1371" t="n">
-        <v>87963604526.32001</v>
+        <v>87963602467.63</v>
       </c>
     </row>
     <row r="1372">
@@ -29248,7 +29248,7 @@
         <v>4126508611.43</v>
       </c>
       <c r="E1372" t="n">
-        <v>88045401582.84</v>
+        <v>88045399522.24001</v>
       </c>
     </row>
     <row r="1373">
@@ -29269,7 +29269,7 @@
         <v>3748737861.76</v>
       </c>
       <c r="E1373" t="n">
-        <v>91559794945.62</v>
+        <v>91559792802.75999</v>
       </c>
     </row>
     <row r="1374">
@@ -29290,7 +29290,7 @@
         <v>5320752621.59</v>
       </c>
       <c r="E1374" t="n">
-        <v>87908492982.42999</v>
+        <v>87908490925.03</v>
       </c>
     </row>
     <row r="1375">
@@ -29311,7 +29311,7 @@
         <v>2446840289.51</v>
       </c>
       <c r="E1375" t="n">
-        <v>89579039655.84</v>
+        <v>89579037559.34</v>
       </c>
     </row>
     <row r="1376">
@@ -29332,7 +29332,7 @@
         <v>1845951247.12</v>
       </c>
       <c r="E1376" t="n">
-        <v>87436076439.84</v>
+        <v>87436074393.5</v>
       </c>
     </row>
     <row r="1377">
@@ -29353,7 +29353,7 @@
         <v>8204544974.99</v>
       </c>
       <c r="E1377" t="n">
-        <v>73429548686.14999</v>
+        <v>73429546967.61</v>
       </c>
     </row>
     <row r="1378">
@@ -29374,7 +29374,7 @@
         <v>10792855904.51</v>
       </c>
       <c r="E1378" t="n">
-        <v>75089085178.47</v>
+        <v>75089083421.09</v>
       </c>
     </row>
     <row r="1379">
@@ -29395,7 +29395,7 @@
         <v>5565468106.45</v>
       </c>
       <c r="E1379" t="n">
-        <v>70046877553.13</v>
+        <v>70046875913.75999</v>
       </c>
     </row>
     <row r="1380">
@@ -29416,7 +29416,7 @@
         <v>4247821646.49</v>
       </c>
       <c r="E1380" t="n">
-        <v>71578048758.28999</v>
+        <v>71578047083.08</v>
       </c>
     </row>
     <row r="1381">
@@ -29437,7 +29437,7 @@
         <v>8773643463.200001</v>
       </c>
       <c r="E1381" t="n">
-        <v>77075244784.89</v>
+        <v>77075242981.03</v>
       </c>
     </row>
     <row r="1382">
@@ -29458,7 +29458,7 @@
         <v>3750217492.26</v>
       </c>
       <c r="E1382" t="n">
-        <v>74591748896.10001</v>
+        <v>74591747150.37</v>
       </c>
     </row>
     <row r="1383">
@@ -29479,7 +29479,7 @@
         <v>13105437774.77</v>
       </c>
       <c r="E1383" t="n">
-        <v>92679912631.88</v>
+        <v>92679910462.81</v>
       </c>
     </row>
     <row r="1384">
@@ -29500,7 +29500,7 @@
         <v>10365994673.49</v>
       </c>
       <c r="E1384" t="n">
-        <v>74130833001.38</v>
+        <v>74130831266.42999</v>
       </c>
     </row>
     <row r="1385">
@@ -29521,7 +29521,7 @@
         <v>8959390661.48</v>
       </c>
       <c r="E1385" t="n">
-        <v>75456099891.03999</v>
+        <v>75456098125.07001</v>
       </c>
     </row>
     <row r="1386">
@@ -29542,7 +29542,7 @@
         <v>5058439503.51</v>
       </c>
       <c r="E1386" t="n">
-        <v>76038516857.87</v>
+        <v>76038515078.27</v>
       </c>
     </row>
     <row r="1387">
@@ -29563,7 +29563,7 @@
         <v>4945954333.28</v>
       </c>
       <c r="E1387" t="n">
-        <v>74618342277.69</v>
+        <v>74618340531.33</v>
       </c>
     </row>
     <row r="1388">
@@ -29584,7 +29584,7 @@
         <v>7016301953.4</v>
       </c>
       <c r="E1388" t="n">
-        <v>72397922637.00999</v>
+        <v>72397920942.62</v>
       </c>
     </row>
     <row r="1389">
@@ -29605,7 +29605,7 @@
         <v>2514068553.48</v>
       </c>
       <c r="E1389" t="n">
-        <v>71201254244.98</v>
+        <v>71201252578.59</v>
       </c>
     </row>
     <row r="1390">
@@ -29626,7 +29626,7 @@
         <v>3801194130.63</v>
       </c>
       <c r="E1390" t="n">
-        <v>65870689415.81</v>
+        <v>65870687874.18</v>
       </c>
     </row>
     <row r="1391">
@@ -29647,7 +29647,7 @@
         <v>5864031854.07</v>
       </c>
       <c r="E1391" t="n">
-        <v>61788527364.77</v>
+        <v>61788525918.68</v>
       </c>
     </row>
     <row r="1392">
@@ -29668,7 +29668,7 @@
         <v>6029007255.05</v>
       </c>
       <c r="E1392" t="n">
-        <v>65243630725.07</v>
+        <v>65243629198.11</v>
       </c>
     </row>
     <row r="1393">
@@ -29689,7 +29689,7 @@
         <v>4689543463.45</v>
       </c>
       <c r="E1393" t="n">
-        <v>65834848405.61</v>
+        <v>65834846864.82</v>
       </c>
     </row>
     <row r="1394">
@@ -29710,7 +29710,7 @@
         <v>3271148359.25</v>
       </c>
       <c r="E1394" t="n">
-        <v>64103918168.16</v>
+        <v>64103916667.88</v>
       </c>
     </row>
     <row r="1395">
@@ -29731,7 +29731,7 @@
         <v>3701658672.59</v>
       </c>
       <c r="E1395" t="n">
-        <v>69470368492.28</v>
+        <v>69470366866.39999</v>
       </c>
     </row>
     <row r="1396">
@@ -29752,7 +29752,7 @@
         <v>2173510694.83</v>
       </c>
       <c r="E1396" t="n">
-        <v>70658188908.66</v>
+        <v>70658187254.98</v>
       </c>
     </row>
     <row r="1397">
@@ -29773,7 +29773,7 @@
         <v>2798721596.91</v>
       </c>
       <c r="E1397" t="n">
-        <v>65626668255.51</v>
+        <v>65626666719.59</v>
       </c>
     </row>
     <row r="1398">
@@ -29794,7 +29794,7 @@
         <v>2835104845.3</v>
       </c>
       <c r="E1398" t="n">
-        <v>66726642181.7</v>
+        <v>66726640620.04</v>
       </c>
     </row>
     <row r="1399">
@@ -29815,7 +29815,7 @@
         <v>2936759432.7</v>
       </c>
       <c r="E1399" t="n">
-        <v>65199568667.14</v>
+        <v>65199567141.22</v>
       </c>
     </row>
     <row r="1400">
@@ -29836,7 +29836,7 @@
         <v>4227937432.46</v>
       </c>
       <c r="E1400" t="n">
-        <v>70546187460.23</v>
+        <v>70546185809.17</v>
       </c>
     </row>
     <row r="1401">
@@ -29857,7 +29857,7 @@
         <v>2856454079.99</v>
       </c>
       <c r="E1401" t="n">
-        <v>66412699162.16</v>
+        <v>66412697607.85</v>
       </c>
     </row>
     <row r="1402">
@@ -29878,7 +29878,7 @@
         <v>2682481813.18</v>
       </c>
       <c r="E1402" t="n">
-        <v>66705798492.76</v>
+        <v>66705796931.59</v>
       </c>
     </row>
     <row r="1403">
@@ -29899,7 +29899,7 @@
         <v>1633225353.2</v>
       </c>
       <c r="E1403" t="n">
-        <v>66784934126.24</v>
+        <v>66784932563.21</v>
       </c>
     </row>
     <row r="1404">
@@ -29920,7 +29920,7 @@
         <v>1946961909.86</v>
       </c>
       <c r="E1404" t="n">
-        <v>68714326702.47</v>
+        <v>68714325094.29</v>
       </c>
     </row>
     <row r="1405">
@@ -29941,7 +29941,7 @@
         <v>4982998048.55</v>
       </c>
       <c r="E1405" t="n">
-        <v>73124440017.8</v>
+        <v>73124438306.39999</v>
       </c>
     </row>
     <row r="1406">
@@ -29962,7 +29962,7 @@
         <v>4141256445.11</v>
       </c>
       <c r="E1406" t="n">
-        <v>74868907656.23</v>
+        <v>74868905904.00999</v>
       </c>
     </row>
     <row r="1407">
@@ -29983,7 +29983,7 @@
         <v>3544853266.97</v>
       </c>
       <c r="E1407" t="n">
-        <v>71311131855.49001</v>
+        <v>71311130186.53</v>
       </c>
     </row>
     <row r="1408">
@@ -30004,7 +30004,7 @@
         <v>3091328527.03</v>
       </c>
       <c r="E1408" t="n">
-        <v>71979874872.53999</v>
+        <v>71979873187.94</v>
       </c>
     </row>
     <row r="1409">
@@ -30025,7 +30025,7 @@
         <v>3970975243.77</v>
       </c>
       <c r="E1409" t="n">
-        <v>67333366196.17</v>
+        <v>67333364620.3</v>
       </c>
     </row>
     <row r="1410">
@@ -30046,7 +30046,7 @@
         <v>2655617262.68</v>
       </c>
       <c r="E1410" t="n">
-        <v>64761504821.26</v>
+        <v>64761503305.59</v>
       </c>
     </row>
     <row r="1411">
@@ -30067,7 +30067,7 @@
         <v>1878569311.03</v>
       </c>
       <c r="E1411" t="n">
-        <v>64802469543.44</v>
+        <v>64802468026.81</v>
       </c>
     </row>
     <row r="1412">
@@ -30088,7 +30088,7 @@
         <v>3728330337.93</v>
       </c>
       <c r="E1412" t="n">
-        <v>64950991417.83</v>
+        <v>64950989897.72</v>
       </c>
     </row>
     <row r="1413">
@@ -30109,7 +30109,7 @@
         <v>3477738068.4</v>
       </c>
       <c r="E1413" t="n">
-        <v>65960505629.65</v>
+        <v>65960504085.92</v>
       </c>
     </row>
     <row r="1414">
@@ -30130,7 +30130,7 @@
         <v>6220758262.82</v>
       </c>
       <c r="E1414" t="n">
-        <v>61423924190.74</v>
+        <v>61423922753.18</v>
       </c>
     </row>
     <row r="1415">
@@ -30151,7 +30151,7 @@
         <v>5474729959.58</v>
       </c>
       <c r="E1415" t="n">
-        <v>60959649024.83</v>
+        <v>60959647598.14</v>
       </c>
     </row>
     <row r="1416">
@@ -30172,7 +30172,7 @@
         <v>6141157658.85</v>
       </c>
       <c r="E1416" t="n">
-        <v>63831022615.8</v>
+        <v>63831021121.91</v>
       </c>
     </row>
     <row r="1417">
@@ -30193,7 +30193,7 @@
         <v>1955824996.87</v>
       </c>
       <c r="E1417" t="n">
-        <v>62507363080.69</v>
+        <v>62507361617.77</v>
       </c>
     </row>
     <row r="1418">
@@ -30214,7 +30214,7 @@
         <v>4396294752.46</v>
       </c>
       <c r="E1418" t="n">
-        <v>55015308751.59</v>
+        <v>55015307464.02</v>
       </c>
     </row>
     <row r="1419">
@@ -30235,7 +30235,7 @@
         <v>9917012343.48</v>
       </c>
       <c r="E1419" t="n">
-        <v>55551918706.94</v>
+        <v>55551917406.81</v>
       </c>
     </row>
     <row r="1420">
@@ -30256,7 +30256,7 @@
         <v>6176838846.4</v>
       </c>
       <c r="E1420" t="n">
-        <v>54870389115.83</v>
+        <v>54870387831.65</v>
       </c>
     </row>
     <row r="1421">
@@ -30277,7 +30277,7 @@
         <v>8239588242.38</v>
       </c>
       <c r="E1421" t="n">
-        <v>61880303667.12</v>
+        <v>61880302218.88</v>
       </c>
     </row>
     <row r="1422">
@@ -30298,7 +30298,7 @@
         <v>4925583853.04</v>
       </c>
       <c r="E1422" t="n">
-        <v>58719411900.95</v>
+        <v>58719410526.69</v>
       </c>
     </row>
     <row r="1423">
@@ -30319,7 +30319,7 @@
         <v>4490645224.53</v>
       </c>
       <c r="E1423" t="n">
-        <v>63144103761.74</v>
+        <v>63144102283.92</v>
       </c>
     </row>
     <row r="1424">
@@ -30340,7 +30340,7 @@
         <v>4651920909.78</v>
       </c>
       <c r="E1424" t="n">
-        <v>68742060125.61</v>
+        <v>68742058516.78</v>
       </c>
     </row>
     <row r="1425">
@@ -30361,7 +30361,7 @@
         <v>4291450492.45</v>
       </c>
       <c r="E1425" t="n">
-        <v>66703200300.47</v>
+        <v>66703198739.36</v>
       </c>
     </row>
     <row r="1426">
@@ -30382,7 +30382,7 @@
         <v>5081658904.24</v>
       </c>
       <c r="E1426" t="n">
-        <v>67320671681.98</v>
+        <v>67320670106.41</v>
       </c>
     </row>
     <row r="1427">
@@ -30403,7 +30403,7 @@
         <v>3719787998.9</v>
       </c>
       <c r="E1427" t="n">
-        <v>65698834132.59</v>
+        <v>65698832594.99</v>
       </c>
     </row>
     <row r="1428">
@@ -30424,7 +30424,7 @@
         <v>5101503918.08</v>
       </c>
       <c r="E1428" t="n">
-        <v>68389262246.1</v>
+        <v>68389260645.53</v>
       </c>
     </row>
     <row r="1429">
@@ -30445,7 +30445,7 @@
         <v>4018737660.85</v>
       </c>
       <c r="E1429" t="n">
-        <v>70022071059.75</v>
+        <v>70022069420.96001</v>
       </c>
     </row>
     <row r="1430">
@@ -30466,7 +30466,7 @@
         <v>2480801560.19</v>
       </c>
       <c r="E1430" t="n">
-        <v>69689645907.69</v>
+        <v>69689644276.67999</v>
       </c>
     </row>
     <row r="1431">
@@ -30487,7 +30487,7 @@
         <v>2834667466.06</v>
       </c>
       <c r="E1431" t="n">
-        <v>72637103527.17999</v>
+        <v>72637101827.19</v>
       </c>
     </row>
     <row r="1432">
@@ -30508,7 +30508,7 @@
         <v>3092429798.99</v>
       </c>
       <c r="E1432" t="n">
-        <v>71591105561.39</v>
+        <v>71591103885.88</v>
       </c>
     </row>
     <row r="1433">
@@ -30529,7 +30529,7 @@
         <v>4783795038.83</v>
       </c>
       <c r="E1433" t="n">
-        <v>70914274695.50999</v>
+        <v>70914273035.84</v>
       </c>
     </row>
     <row r="1434">
@@ -30550,7 +30550,7 @@
         <v>5472749483.48</v>
       </c>
       <c r="E1434" t="n">
-        <v>77402590740.03</v>
+        <v>77402588928.50999</v>
       </c>
     </row>
     <row r="1435">
@@ -30571,7 +30571,7 @@
         <v>5423865832.32</v>
       </c>
       <c r="E1435" t="n">
-        <v>78544839281.02</v>
+        <v>78544837442.75999</v>
       </c>
     </row>
     <row r="1436">
@@ -30592,7 +30592,7 @@
         <v>4515150018.58</v>
       </c>
       <c r="E1436" t="n">
-        <v>79236671719.71001</v>
+        <v>79236669865.27</v>
       </c>
     </row>
     <row r="1437">
@@ -30613,7 +30613,7 @@
         <v>5066838746.45</v>
       </c>
       <c r="E1437" t="n">
-        <v>78503318722.88</v>
+        <v>78503316885.60001</v>
       </c>
     </row>
     <row r="1438">
@@ -30634,7 +30634,7 @@
         <v>2422656520.39</v>
       </c>
       <c r="E1438" t="n">
-        <v>77580672174.57001</v>
+        <v>77580670358.88</v>
       </c>
     </row>
     <row r="1439">
@@ -30655,7 +30655,7 @@
         <v>2296538427.65</v>
       </c>
       <c r="E1439" t="n">
-        <v>77112701283.85001</v>
+        <v>77112699479.11</v>
       </c>
     </row>
     <row r="1440">
@@ -30676,7 +30676,7 @@
         <v>4344220983.97</v>
       </c>
       <c r="E1440" t="n">
-        <v>76979622882.59</v>
+        <v>76979621080.96001</v>
       </c>
     </row>
     <row r="1441">
@@ -30697,7 +30697,7 @@
         <v>3236163761.82</v>
       </c>
       <c r="E1441" t="n">
-        <v>76200532790.7</v>
+        <v>76200531007.31</v>
       </c>
     </row>
     <row r="1442">
@@ -30718,7 +30718,7 @@
         <v>3339352715.47</v>
       </c>
       <c r="E1442" t="n">
-        <v>76845758597.67999</v>
+        <v>76845756799.19</v>
       </c>
     </row>
     <row r="1443">
@@ -30739,7 +30739,7 @@
         <v>3739901458.5</v>
       </c>
       <c r="E1443" t="n">
-        <v>78420289011.44</v>
+        <v>78420287176.10001</v>
       </c>
     </row>
     <row r="1444">
@@ -30760,7 +30760,7 @@
         <v>3193090564.2</v>
       </c>
       <c r="E1444" t="n">
-        <v>76969898953.85001</v>
+        <v>76969897152.46001</v>
       </c>
     </row>
     <row r="1445">
@@ -30781,7 +30781,7 @@
         <v>1777312803.78</v>
       </c>
       <c r="E1445" t="n">
-        <v>76358918082.44</v>
+        <v>76358916295.35001</v>
       </c>
     </row>
     <row r="1446">
@@ -30802,7 +30802,7 @@
         <v>1839075329.6</v>
       </c>
       <c r="E1446" t="n">
-        <v>74894527174.78999</v>
+        <v>74894525421.97</v>
       </c>
     </row>
     <row r="1447">
@@ -30823,7 +30823,7 @@
         <v>2594552533.48</v>
       </c>
       <c r="E1447" t="n">
-        <v>76365762110.89</v>
+        <v>76365760323.64</v>
       </c>
     </row>
     <row r="1448">
@@ -30844,7 +30844,7 @@
         <v>3138354742.94</v>
       </c>
       <c r="E1448" t="n">
-        <v>76417093101.55</v>
+        <v>76417091313.10001</v>
       </c>
     </row>
     <row r="1449">
@@ -30865,7 +30865,7 @@
         <v>4811988060.66</v>
       </c>
       <c r="E1449" t="n">
-        <v>76568570049.00999</v>
+        <v>76568568257.00999</v>
       </c>
     </row>
     <row r="1450">
@@ -30886,7 +30886,7 @@
         <v>7618036777.6</v>
       </c>
       <c r="E1450" t="n">
-        <v>85003393954.28999</v>
+        <v>85003391964.89</v>
       </c>
     </row>
     <row r="1451">
@@ -30907,7 +30907,7 @@
         <v>8703440319.33</v>
       </c>
       <c r="E1451" t="n">
-        <v>89830941212.16</v>
+        <v>89830939109.77</v>
       </c>
     </row>
     <row r="1452">
@@ -30928,7 +30928,7 @@
         <v>4641291512.68</v>
       </c>
       <c r="E1452" t="n">
-        <v>92247499701.58</v>
+        <v>92247497542.63</v>
       </c>
     </row>
     <row r="1453">
@@ -30949,7 +30949,7 @@
         <v>4733142340.02</v>
       </c>
       <c r="E1453" t="n">
-        <v>89914539873.75</v>
+        <v>89914537769.39999</v>
       </c>
     </row>
     <row r="1454">
@@ -30970,7 +30970,7 @@
         <v>8002629811.57</v>
       </c>
       <c r="E1454" t="n">
-        <v>90726886289.14999</v>
+        <v>90726884165.78999</v>
       </c>
     </row>
     <row r="1455">
@@ -30991,7 +30991,7 @@
         <v>6287498118.26</v>
       </c>
       <c r="E1455" t="n">
-        <v>95738307922.44</v>
+        <v>95738305681.78999</v>
       </c>
     </row>
     <row r="1456">
@@ -31012,7 +31012,7 @@
         <v>5807895946.6</v>
       </c>
       <c r="E1456" t="n">
-        <v>91785718083.3</v>
+        <v>91785715935.16</v>
       </c>
     </row>
     <row r="1457">
@@ -31033,7 +31033,7 @@
         <v>5419257075.79</v>
       </c>
       <c r="E1457" t="n">
-        <v>87779213986.24001</v>
+        <v>87779211931.87</v>
       </c>
     </row>
     <row r="1458">
@@ -31054,7 +31054,7 @@
         <v>4389549581.7</v>
       </c>
       <c r="E1458" t="n">
-        <v>87267073618.00999</v>
+        <v>87267071575.62</v>
       </c>
     </row>
     <row r="1459">
@@ -31075,7 +31075,7 @@
         <v>3269429713.77</v>
       </c>
       <c r="E1459" t="n">
-        <v>86315844396.56</v>
+        <v>86315842376.44</v>
       </c>
     </row>
     <row r="1460">
@@ -31096,7 +31096,7 @@
         <v>4719647862.73</v>
       </c>
       <c r="E1460" t="n">
-        <v>89229421827.32001</v>
+        <v>89229419739.00999</v>
       </c>
     </row>
     <row r="1461">
@@ -31117,7 +31117,7 @@
         <v>4917489419.35</v>
       </c>
       <c r="E1461" t="n">
-        <v>86719213829.98</v>
+        <v>86719211800.41</v>
       </c>
     </row>
     <row r="1462">
@@ -31138,7 +31138,7 @@
         <v>4723025924.72</v>
       </c>
       <c r="E1462" t="n">
-        <v>87588330041.58</v>
+        <v>87588327991.67</v>
       </c>
     </row>
     <row r="1463">
@@ -31159,7 +31159,7 @@
         <v>6215139156.98</v>
       </c>
       <c r="E1463" t="n">
-        <v>90491882299.7</v>
+        <v>90491880181.84</v>
       </c>
     </row>
     <row r="1464">
@@ -31180,7 +31180,7 @@
         <v>5820960214.76</v>
       </c>
       <c r="E1464" t="n">
-        <v>93410594915.28999</v>
+        <v>93410592729.12</v>
       </c>
     </row>
     <row r="1465">
@@ -31195,13 +31195,13 @@
         </is>
       </c>
       <c r="C1465" t="n">
-        <v>181.41</v>
+        <v>180.16</v>
       </c>
       <c r="D1465" t="n">
-        <v>8143034343.9</v>
+        <v>8171309649.47</v>
       </c>
       <c r="E1465" t="n">
-        <v>94361226292.39</v>
+        <v>93712331947.28999</v>
       </c>
     </row>
     <row r="1466">
@@ -38881,13 +38881,13 @@
         </is>
       </c>
       <c r="C1831" t="n">
-        <v>4.75</v>
+        <v>4.73</v>
       </c>
       <c r="D1831" t="n">
-        <v>372248653.4</v>
+        <v>372401293.95</v>
       </c>
       <c r="E1831" t="n">
-        <v>7227049113.34</v>
+        <v>7196545680.31</v>
       </c>
     </row>
     <row r="1832">
@@ -38908,7 +38908,7 @@
         <v>707789164.85</v>
       </c>
       <c r="E1832" t="n">
-        <v>16225053812</v>
+        <v>16225056114.56</v>
       </c>
     </row>
     <row r="1833">
@@ -38929,7 +38929,7 @@
         <v>392507120.69</v>
       </c>
       <c r="E1833" t="n">
-        <v>15993647125.46</v>
+        <v>15993649395.18</v>
       </c>
     </row>
     <row r="1834">
@@ -38950,7 +38950,7 @@
         <v>223278057.76</v>
       </c>
       <c r="E1834" t="n">
-        <v>16120892468.09</v>
+        <v>16120894755.86</v>
       </c>
     </row>
     <row r="1835">
@@ -38971,7 +38971,7 @@
         <v>227489324.56</v>
       </c>
       <c r="E1835" t="n">
-        <v>15482958333.8</v>
+        <v>15482960531.04</v>
       </c>
     </row>
     <row r="1836">
@@ -38992,7 +38992,7 @@
         <v>345616879.32</v>
       </c>
       <c r="E1836" t="n">
-        <v>16094956823.04</v>
+        <v>16094959107.14</v>
       </c>
     </row>
     <row r="1837">
@@ -39013,7 +39013,7 @@
         <v>504985148.97</v>
       </c>
       <c r="E1837" t="n">
-        <v>15585757562.89</v>
+        <v>15585759774.72</v>
       </c>
     </row>
     <row r="1838">
@@ -39034,7 +39034,7 @@
         <v>380829004.95</v>
       </c>
       <c r="E1838" t="n">
-        <v>15220271266.94</v>
+        <v>15220273426.91</v>
       </c>
     </row>
     <row r="1839">
@@ -39055,7 +39055,7 @@
         <v>389444121.07</v>
       </c>
       <c r="E1839" t="n">
-        <v>15150935107.45</v>
+        <v>15150937257.58</v>
       </c>
     </row>
     <row r="1840">
@@ -39076,7 +39076,7 @@
         <v>322210146.93</v>
       </c>
       <c r="E1840" t="n">
-        <v>15196804304.4</v>
+        <v>15196806461.04</v>
       </c>
     </row>
     <row r="1841">
@@ -39097,7 +39097,7 @@
         <v>168244740.54</v>
       </c>
       <c r="E1841" t="n">
-        <v>15063521934.63</v>
+        <v>15063524072.35</v>
       </c>
     </row>
     <row r="1842">
@@ -39118,7 +39118,7 @@
         <v>226300777.06</v>
       </c>
       <c r="E1842" t="n">
-        <v>14710764273.83</v>
+        <v>14710766361.49</v>
       </c>
     </row>
     <row r="1843">
@@ -39139,7 +39139,7 @@
         <v>352436547.55</v>
       </c>
       <c r="E1843" t="n">
-        <v>14753600956.19</v>
+        <v>14753603049.93</v>
       </c>
     </row>
     <row r="1844">
@@ -39160,7 +39160,7 @@
         <v>315476447.93</v>
       </c>
       <c r="E1844" t="n">
-        <v>15197861379.75</v>
+        <v>15197863536.54</v>
       </c>
     </row>
     <row r="1845">
@@ -39181,7 +39181,7 @@
         <v>356246145.48</v>
       </c>
       <c r="E1845" t="n">
-        <v>15384919457.77</v>
+        <v>15384921641.11</v>
       </c>
     </row>
     <row r="1846">
@@ -39202,7 +39202,7 @@
         <v>290657608.54</v>
       </c>
       <c r="E1846" t="n">
-        <v>15128134225.31</v>
+        <v>15128136372.2</v>
       </c>
     </row>
     <row r="1847">
@@ -39223,7 +39223,7 @@
         <v>703149268.0700001</v>
       </c>
       <c r="E1847" t="n">
-        <v>14110672483.47</v>
+        <v>14110674485.97</v>
       </c>
     </row>
     <row r="1848">
@@ -39244,7 +39244,7 @@
         <v>271431362.44</v>
       </c>
       <c r="E1848" t="n">
-        <v>13601353790.85</v>
+        <v>13601355721.07</v>
       </c>
     </row>
     <row r="1849">
@@ -39265,7 +39265,7 @@
         <v>215458352.08</v>
       </c>
       <c r="E1849" t="n">
-        <v>13879119104.99</v>
+        <v>13879121074.63</v>
       </c>
     </row>
     <row r="1850">
@@ -39286,7 +39286,7 @@
         <v>344183712.95</v>
       </c>
       <c r="E1850" t="n">
-        <v>13603600768.34</v>
+        <v>13603602698.87</v>
       </c>
     </row>
     <row r="1851">
@@ -39307,7 +39307,7 @@
         <v>482445536.83</v>
       </c>
       <c r="E1851" t="n">
-        <v>13274873752.14</v>
+        <v>13274875636.02</v>
       </c>
     </row>
     <row r="1852">
@@ -39328,7 +39328,7 @@
         <v>422996473.63</v>
       </c>
       <c r="E1852" t="n">
-        <v>14003866309.59</v>
+        <v>14003868296.93</v>
       </c>
     </row>
     <row r="1853">
@@ -39349,7 +39349,7 @@
         <v>314931253.23</v>
       </c>
       <c r="E1853" t="n">
-        <v>13037978809.19</v>
+        <v>13037980659.46</v>
       </c>
     </row>
     <row r="1854">
@@ -39370,7 +39370,7 @@
         <v>403233401.2</v>
       </c>
       <c r="E1854" t="n">
-        <v>12759814824.77</v>
+        <v>12759816635.56</v>
       </c>
     </row>
     <row r="1855">
@@ -39391,7 +39391,7 @@
         <v>181520413.81</v>
       </c>
       <c r="E1855" t="n">
-        <v>12619056303.57</v>
+        <v>12619058094.38</v>
       </c>
     </row>
     <row r="1856">
@@ -39412,7 +39412,7 @@
         <v>194810647.16</v>
       </c>
       <c r="E1856" t="n">
-        <v>12628064377.93</v>
+        <v>12628066170.02</v>
       </c>
     </row>
     <row r="1857">
@@ -39433,7 +39433,7 @@
         <v>361488884.26</v>
       </c>
       <c r="E1857" t="n">
-        <v>11987286989.66</v>
+        <v>11987288690.82</v>
       </c>
     </row>
     <row r="1858">
@@ -39454,7 +39454,7 @@
         <v>542719220.54</v>
       </c>
       <c r="E1858" t="n">
-        <v>11204962658.9</v>
+        <v>11204964249.04</v>
       </c>
     </row>
     <row r="1859">
@@ -39475,7 +39475,7 @@
         <v>246571520</v>
       </c>
       <c r="E1859" t="n">
-        <v>11307095441.21</v>
+        <v>11307097045.84</v>
       </c>
     </row>
     <row r="1860">
@@ -39496,7 +39496,7 @@
         <v>330358267.77</v>
       </c>
       <c r="E1860" t="n">
-        <v>11593005034.12</v>
+        <v>11593006679.33</v>
       </c>
     </row>
     <row r="1861">
@@ -39517,7 +39517,7 @@
         <v>258952202.85</v>
       </c>
       <c r="E1861" t="n">
-        <v>11555181331.4</v>
+        <v>11555182971.24</v>
       </c>
     </row>
     <row r="1862">
@@ -39538,7 +39538,7 @@
         <v>654721288.23</v>
       </c>
       <c r="E1862" t="n">
-        <v>10784067223.56</v>
+        <v>10784068753.97</v>
       </c>
     </row>
     <row r="1863">
@@ -39559,7 +39559,7 @@
         <v>418455682.94</v>
       </c>
       <c r="E1863" t="n">
-        <v>10548083445.86</v>
+        <v>10548084942.78</v>
       </c>
     </row>
     <row r="1864">
@@ -39580,7 +39580,7 @@
         <v>534961067.09</v>
       </c>
       <c r="E1864" t="n">
-        <v>10466713103.32</v>
+        <v>10466714588.69</v>
       </c>
     </row>
     <row r="1865">
@@ -39601,7 +39601,7 @@
         <v>269083984.69</v>
       </c>
       <c r="E1865" t="n">
-        <v>10698461480.38</v>
+        <v>10698462998.64</v>
       </c>
     </row>
     <row r="1866">
@@ -39622,7 +39622,7 @@
         <v>406356445.99</v>
       </c>
       <c r="E1866" t="n">
-        <v>10864986429.47</v>
+        <v>10864987971.37</v>
       </c>
     </row>
     <row r="1867">
@@ -39643,7 +39643,7 @@
         <v>392235454.19</v>
       </c>
       <c r="E1867" t="n">
-        <v>11734709894.96</v>
+        <v>11734711560.28</v>
       </c>
     </row>
     <row r="1868">
@@ -39664,7 +39664,7 @@
         <v>355921169.52</v>
       </c>
       <c r="E1868" t="n">
-        <v>11747369394.95</v>
+        <v>11747371062.06</v>
       </c>
     </row>
     <row r="1869">
@@ -39685,7 +39685,7 @@
         <v>219082731.75</v>
       </c>
       <c r="E1869" t="n">
-        <v>11664798160.97</v>
+        <v>11664799816.36</v>
       </c>
     </row>
     <row r="1870">
@@ -39706,7 +39706,7 @@
         <v>288316224.73</v>
       </c>
       <c r="E1870" t="n">
-        <v>12340789161.97</v>
+        <v>12340790913.3</v>
       </c>
     </row>
     <row r="1871">
@@ -39727,7 +39727,7 @@
         <v>334249122.56</v>
       </c>
       <c r="E1871" t="n">
-        <v>12134945365.95</v>
+        <v>12134947088.06</v>
       </c>
     </row>
     <row r="1872">
@@ -39748,7 +39748,7 @@
         <v>301357122.79</v>
       </c>
       <c r="E1872" t="n">
-        <v>12054947951.59</v>
+        <v>12054949662.35</v>
       </c>
     </row>
     <row r="1873">
@@ -39769,7 +39769,7 @@
         <v>397194443.29</v>
       </c>
       <c r="E1873" t="n">
-        <v>11155395581.62</v>
+        <v>11155397164.72</v>
       </c>
     </row>
     <row r="1874">
@@ -39790,7 +39790,7 @@
         <v>420987777.2</v>
       </c>
       <c r="E1874" t="n">
-        <v>10302404223.85</v>
+        <v>10302405685.9</v>
       </c>
     </row>
     <row r="1875">
@@ -39811,7 +39811,7 @@
         <v>680356022.23</v>
       </c>
       <c r="E1875" t="n">
-        <v>10583536332.2</v>
+        <v>10583537834.15</v>
       </c>
     </row>
     <row r="1876">
@@ -39832,7 +39832,7 @@
         <v>292912286.27</v>
       </c>
       <c r="E1876" t="n">
-        <v>11546260274.16</v>
+        <v>11546261912.74</v>
       </c>
     </row>
     <row r="1877">
@@ -39853,7 +39853,7 @@
         <v>303498260.03</v>
       </c>
       <c r="E1877" t="n">
-        <v>10800501157.31</v>
+        <v>10800502690.05</v>
       </c>
     </row>
     <row r="1878">
@@ -39874,7 +39874,7 @@
         <v>504540025.82</v>
       </c>
       <c r="E1878" t="n">
-        <v>10623253629.72</v>
+        <v>10623255137.31</v>
       </c>
     </row>
     <row r="1879">
@@ -39895,7 +39895,7 @@
         <v>405148423.71</v>
       </c>
       <c r="E1879" t="n">
-        <v>11121951859.89</v>
+        <v>11121953438.24</v>
       </c>
     </row>
     <row r="1880">
@@ -39916,7 +39916,7 @@
         <v>318706290.69</v>
       </c>
       <c r="E1880" t="n">
-        <v>10853593852.98</v>
+        <v>10853595393.25</v>
       </c>
     </row>
     <row r="1881">
@@ -39937,7 +39937,7 @@
         <v>347808028.81</v>
       </c>
       <c r="E1881" t="n">
-        <v>10633494187.55</v>
+        <v>10633495696.59</v>
       </c>
     </row>
     <row r="1882">
@@ -39958,7 +39958,7 @@
         <v>293613898.63</v>
       </c>
       <c r="E1882" t="n">
-        <v>10926000333.22</v>
+        <v>10926001883.77</v>
       </c>
     </row>
     <row r="1883">
@@ -39979,7 +39979,7 @@
         <v>304099451.72</v>
       </c>
       <c r="E1883" t="n">
-        <v>10891952543.25</v>
+        <v>10891954088.97</v>
       </c>
     </row>
     <row r="1884">
@@ -40000,7 +40000,7 @@
         <v>283913323.28</v>
       </c>
       <c r="E1884" t="n">
-        <v>11132385432.61</v>
+        <v>11132387012.45</v>
       </c>
     </row>
     <row r="1885">
@@ -40021,7 +40021,7 @@
         <v>416582832.43</v>
       </c>
       <c r="E1885" t="n">
-        <v>11721672286.85</v>
+        <v>11721673950.32</v>
       </c>
     </row>
     <row r="1886">
@@ -40042,7 +40042,7 @@
         <v>606310865.83</v>
       </c>
       <c r="E1886" t="n">
-        <v>11809461579.48</v>
+        <v>11809463255.4</v>
       </c>
     </row>
     <row r="1887">
@@ -40063,7 +40063,7 @@
         <v>433873516.71</v>
       </c>
       <c r="E1887" t="n">
-        <v>11479897531.15</v>
+        <v>11479899160.3</v>
       </c>
     </row>
     <row r="1888">
@@ -40084,7 +40084,7 @@
         <v>326592306.12</v>
       </c>
       <c r="E1888" t="n">
-        <v>11428522096.94</v>
+        <v>11428523718.81</v>
       </c>
     </row>
     <row r="1889">
@@ -40105,7 +40105,7 @@
         <v>405362560.79</v>
       </c>
       <c r="E1889" t="n">
-        <v>11863463136.43</v>
+        <v>11863464820.02</v>
       </c>
     </row>
     <row r="1890">
@@ -40126,7 +40126,7 @@
         <v>287010783.98</v>
       </c>
       <c r="E1890" t="n">
-        <v>12269875615.29</v>
+        <v>12269877356.56</v>
       </c>
     </row>
     <row r="1891">
@@ -40147,7 +40147,7 @@
         <v>914137476.7</v>
       </c>
       <c r="E1891" t="n">
-        <v>13731902185.96</v>
+        <v>13731904134.71</v>
       </c>
     </row>
     <row r="1892">
@@ -40168,7 +40168,7 @@
         <v>608687103.12</v>
       </c>
       <c r="E1892" t="n">
-        <v>13446987433.55</v>
+        <v>13446989341.86</v>
       </c>
     </row>
     <row r="1893">
@@ -40189,7 +40189,7 @@
         <v>571306242.3</v>
       </c>
       <c r="E1893" t="n">
-        <v>12579702857.89</v>
+        <v>12579704643.12</v>
       </c>
     </row>
     <row r="1894">
@@ -40210,7 +40210,7 @@
         <v>527836307.65</v>
       </c>
       <c r="E1894" t="n">
-        <v>11957337350.79</v>
+        <v>11957339047.7</v>
       </c>
     </row>
     <row r="1895">
@@ -40231,7 +40231,7 @@
         <v>480572572.19</v>
       </c>
       <c r="E1895" t="n">
-        <v>11477772654.34</v>
+        <v>11477774283.19</v>
       </c>
     </row>
     <row r="1896">
@@ -40252,7 +40252,7 @@
         <v>390610240.98</v>
       </c>
       <c r="E1896" t="n">
-        <v>12081579820.73</v>
+        <v>12081581535.28</v>
       </c>
     </row>
     <row r="1897">
@@ -40273,7 +40273,7 @@
         <v>353157147.67</v>
       </c>
       <c r="E1897" t="n">
-        <v>11851673703.61</v>
+        <v>11851675385.52</v>
       </c>
     </row>
     <row r="1898">
@@ -40294,7 +40294,7 @@
         <v>221475930.72</v>
       </c>
       <c r="E1898" t="n">
-        <v>11540523299.25</v>
+        <v>11540524937.01</v>
       </c>
     </row>
     <row r="1899">
@@ -40315,7 +40315,7 @@
         <v>392167800.59</v>
       </c>
       <c r="E1899" t="n">
-        <v>11424573583.18</v>
+        <v>11424575204.48</v>
       </c>
     </row>
     <row r="1900">
@@ -40336,7 +40336,7 @@
         <v>277747284.75</v>
       </c>
       <c r="E1900" t="n">
-        <v>11091394155.31</v>
+        <v>11091395729.33</v>
       </c>
     </row>
     <row r="1901">
@@ -40357,7 +40357,7 @@
         <v>304415527.06</v>
       </c>
       <c r="E1901" t="n">
-        <v>10830377865.19</v>
+        <v>10830379402.17</v>
       </c>
     </row>
     <row r="1902">
@@ -40378,7 +40378,7 @@
         <v>322290629.14</v>
       </c>
       <c r="E1902" t="n">
-        <v>10825478470.17</v>
+        <v>10825480006.45</v>
       </c>
     </row>
     <row r="1903">
@@ -40399,7 +40399,7 @@
         <v>387464149.8</v>
       </c>
       <c r="E1903" t="n">
-        <v>9923227102.540001</v>
+        <v>9923228510.780001</v>
       </c>
     </row>
     <row r="1904">
@@ -40420,7 +40420,7 @@
         <v>296801111.47</v>
       </c>
       <c r="E1904" t="n">
-        <v>9552653022.049999</v>
+        <v>9552654377.700001</v>
       </c>
     </row>
     <row r="1905">
@@ -40441,7 +40441,7 @@
         <v>306909766.58</v>
       </c>
       <c r="E1905" t="n">
-        <v>8925523789.870001</v>
+        <v>8925525056.52</v>
       </c>
     </row>
     <row r="1906">
@@ -40462,7 +40462,7 @@
         <v>1150108079.75</v>
       </c>
       <c r="E1906" t="n">
-        <v>8236708720.08</v>
+        <v>8236709888.98</v>
       </c>
     </row>
     <row r="1907">
@@ -40483,7 +40483,7 @@
         <v>410666060.63</v>
       </c>
       <c r="E1907" t="n">
-        <v>8781338231.77</v>
+        <v>8781339477.969999</v>
       </c>
     </row>
     <row r="1908">
@@ -40504,7 +40504,7 @@
         <v>342610674.76</v>
       </c>
       <c r="E1908" t="n">
-        <v>8359822274.52</v>
+        <v>8359823460.89</v>
       </c>
     </row>
     <row r="1909">
@@ -40525,7 +40525,7 @@
         <v>338194296.06</v>
       </c>
       <c r="E1909" t="n">
-        <v>9571468169.23</v>
+        <v>9571469527.559999</v>
       </c>
     </row>
     <row r="1910">
@@ -40546,7 +40546,7 @@
         <v>278640446.11</v>
       </c>
       <c r="E1910" t="n">
-        <v>9169376280.309999</v>
+        <v>9169377581.58</v>
       </c>
     </row>
     <row r="1911">
@@ -40567,7 +40567,7 @@
         <v>161172509.86</v>
       </c>
       <c r="E1911" t="n">
-        <v>9089962041.68</v>
+        <v>9089963331.67</v>
       </c>
     </row>
     <row r="1912">
@@ -40588,7 +40588,7 @@
         <v>219603382.3</v>
       </c>
       <c r="E1912" t="n">
-        <v>8607721791.57</v>
+        <v>8607723013.120001</v>
       </c>
     </row>
     <row r="1913">
@@ -40609,7 +40609,7 @@
         <v>301059569.8</v>
       </c>
       <c r="E1913" t="n">
-        <v>8964632892.66</v>
+        <v>8964634164.860001</v>
       </c>
     </row>
     <row r="1914">
@@ -40630,7 +40630,7 @@
         <v>242710732.92</v>
       </c>
       <c r="E1914" t="n">
-        <v>9019521703.02</v>
+        <v>9019522983.01</v>
       </c>
     </row>
     <row r="1915">
@@ -40651,7 +40651,7 @@
         <v>210841613.72</v>
       </c>
       <c r="E1915" t="n">
-        <v>8828739356.02</v>
+        <v>8828740608.940001</v>
       </c>
     </row>
     <row r="1916">
@@ -40672,7 +40672,7 @@
         <v>296875533.8</v>
       </c>
       <c r="E1916" t="n">
-        <v>8476950151.89</v>
+        <v>8476951354.88</v>
       </c>
     </row>
     <row r="1917">
@@ -40693,7 +40693,7 @@
         <v>198508957.53</v>
       </c>
       <c r="E1917" t="n">
-        <v>8583701207.03</v>
+        <v>8583702425.18</v>
       </c>
     </row>
     <row r="1918">
@@ -40714,7 +40714,7 @@
         <v>119068221.33</v>
       </c>
       <c r="E1918" t="n">
-        <v>8698622783.139999</v>
+        <v>8698624017.6</v>
       </c>
     </row>
     <row r="1919">
@@ -40735,7 +40735,7 @@
         <v>182623912.04</v>
       </c>
       <c r="E1919" t="n">
-        <v>8749605924.139999</v>
+        <v>8749607165.82</v>
       </c>
     </row>
     <row r="1920">
@@ -40756,7 +40756,7 @@
         <v>194282556.65</v>
       </c>
       <c r="E1920" t="n">
-        <v>8948381521.549999</v>
+        <v>8948382791.440001</v>
       </c>
     </row>
     <row r="1921">
@@ -40777,7 +40777,7 @@
         <v>353916607.42</v>
       </c>
       <c r="E1921" t="n">
-        <v>9382312708.98</v>
+        <v>9382314040.459999</v>
       </c>
     </row>
     <row r="1922">
@@ -40798,7 +40798,7 @@
         <v>327464552.09</v>
       </c>
       <c r="E1922" t="n">
-        <v>9895699671.610001</v>
+        <v>9895701075.940001</v>
       </c>
     </row>
     <row r="1923">
@@ -40819,7 +40819,7 @@
         <v>312092441.79</v>
       </c>
       <c r="E1923" t="n">
-        <v>10623828160.84</v>
+        <v>10623829668.51</v>
       </c>
     </row>
     <row r="1924">
@@ -40840,7 +40840,7 @@
         <v>584551510.22</v>
       </c>
       <c r="E1924" t="n">
-        <v>11188428147.24</v>
+        <v>11188429735.03</v>
       </c>
     </row>
     <row r="1925">
@@ -40861,7 +40861,7 @@
         <v>412531434.88</v>
       </c>
       <c r="E1925" t="n">
-        <v>11428260370.55</v>
+        <v>11428261992.37</v>
       </c>
     </row>
     <row r="1926">
@@ -40882,7 +40882,7 @@
         <v>363508801.8</v>
       </c>
       <c r="E1926" t="n">
-        <v>11370450951.29</v>
+        <v>11370452564.92</v>
       </c>
     </row>
     <row r="1927">
@@ -40903,7 +40903,7 @@
         <v>378353561.18</v>
       </c>
       <c r="E1927" t="n">
-        <v>10926456282.15</v>
+        <v>10926457832.77</v>
       </c>
     </row>
     <row r="1928">
@@ -40924,7 +40924,7 @@
         <v>383830724.41</v>
       </c>
       <c r="E1928" t="n">
-        <v>10139187550.15</v>
+        <v>10139188989.04</v>
       </c>
     </row>
     <row r="1929">
@@ -40945,7 +40945,7 @@
         <v>414276000.77</v>
       </c>
       <c r="E1929" t="n">
-        <v>9890974489.809999</v>
+        <v>9890975893.48</v>
       </c>
     </row>
     <row r="1930">
@@ -40966,7 +40966,7 @@
         <v>311382665.26</v>
       </c>
       <c r="E1930" t="n">
-        <v>9629992105.200001</v>
+        <v>9629993471.83</v>
       </c>
     </row>
     <row r="1931">
@@ -40987,7 +40987,7 @@
         <v>287224198.17</v>
       </c>
       <c r="E1931" t="n">
-        <v>9810644525.26</v>
+        <v>9810645917.52</v>
       </c>
     </row>
     <row r="1932">
@@ -41008,7 +41008,7 @@
         <v>131857722.21</v>
       </c>
       <c r="E1932" t="n">
-        <v>9595091685.110001</v>
+        <v>9595093046.790001</v>
       </c>
     </row>
     <row r="1933">
@@ -41029,7 +41029,7 @@
         <v>246485714.45</v>
       </c>
       <c r="E1933" t="n">
-        <v>9038602219.99</v>
+        <v>9038603502.690001</v>
       </c>
     </row>
     <row r="1934">
@@ -41050,7 +41050,7 @@
         <v>224120067.19</v>
       </c>
       <c r="E1934" t="n">
-        <v>9412757415.32</v>
+        <v>9412758751.120001</v>
       </c>
     </row>
     <row r="1935">
@@ -41071,7 +41071,7 @@
         <v>208801024.4</v>
       </c>
       <c r="E1935" t="n">
-        <v>8994400858.309999</v>
+        <v>8994402134.74</v>
       </c>
     </row>
     <row r="1936">
@@ -41092,7 +41092,7 @@
         <v>277107283.9</v>
       </c>
       <c r="E1936" t="n">
-        <v>9215063215.35</v>
+        <v>9215064523.09</v>
       </c>
     </row>
     <row r="1937">
@@ -41113,7 +41113,7 @@
         <v>209354191.23</v>
       </c>
       <c r="E1937" t="n">
-        <v>8996702434.07</v>
+        <v>8996703710.83</v>
       </c>
     </row>
     <row r="1938">
@@ -41134,7 +41134,7 @@
         <v>356175336.04</v>
       </c>
       <c r="E1938" t="n">
-        <v>8896202042.799999</v>
+        <v>8896203305.299999</v>
       </c>
     </row>
     <row r="1939">
@@ -41155,7 +41155,7 @@
         <v>172350783</v>
       </c>
       <c r="E1939" t="n">
-        <v>9175716821.639999</v>
+        <v>9175718123.799999</v>
       </c>
     </row>
     <row r="1940">
@@ -41176,7 +41176,7 @@
         <v>279088482.96</v>
       </c>
       <c r="E1940" t="n">
-        <v>9760086260.27</v>
+        <v>9760087645.360001</v>
       </c>
     </row>
     <row r="1941">
@@ -41197,7 +41197,7 @@
         <v>351215862.65</v>
       </c>
       <c r="E1941" t="n">
-        <v>10056307640.69</v>
+        <v>10056309067.82</v>
       </c>
     </row>
     <row r="1942">
@@ -41218,7 +41218,7 @@
         <v>263302725.65</v>
       </c>
       <c r="E1942" t="n">
-        <v>10251324323.01</v>
+        <v>10251325777.81</v>
       </c>
     </row>
     <row r="1943">
@@ -41239,7 +41239,7 @@
         <v>271360064.55</v>
       </c>
       <c r="E1943" t="n">
-        <v>9818674728.26</v>
+        <v>9818676121.67</v>
       </c>
     </row>
     <row r="1944">
@@ -41260,7 +41260,7 @@
         <v>257899609.01</v>
       </c>
       <c r="E1944" t="n">
-        <v>10102254879.24</v>
+        <v>10102256312.88</v>
       </c>
     </row>
     <row r="1945">
@@ -41281,7 +41281,7 @@
         <v>309604465.59</v>
       </c>
       <c r="E1945" t="n">
-        <v>10505499641.13</v>
+        <v>10505501132.01</v>
       </c>
     </row>
     <row r="1946">
@@ -41302,7 +41302,7 @@
         <v>218024482.32</v>
       </c>
       <c r="E1946" t="n">
-        <v>10661728530.94</v>
+        <v>10661730043.99</v>
       </c>
     </row>
     <row r="1947">
@@ -41323,7 +41323,7 @@
         <v>242415298.05</v>
       </c>
       <c r="E1947" t="n">
-        <v>10044520911.86</v>
+        <v>10044522337.32</v>
       </c>
     </row>
     <row r="1948">
@@ -41344,7 +41344,7 @@
         <v>287383725.92</v>
       </c>
       <c r="E1948" t="n">
-        <v>9895387442.440001</v>
+        <v>9895388846.73</v>
       </c>
     </row>
     <row r="1949">
@@ -41365,7 +41365,7 @@
         <v>250678318.61</v>
       </c>
       <c r="E1949" t="n">
-        <v>10007842496.45</v>
+        <v>10007843916.7</v>
       </c>
     </row>
     <row r="1950">
@@ -41386,7 +41386,7 @@
         <v>329727160.14</v>
       </c>
       <c r="E1950" t="n">
-        <v>10333549980.67</v>
+        <v>10333551447.14</v>
       </c>
     </row>
     <row r="1951">
@@ -41407,7 +41407,7 @@
         <v>536989037.03</v>
       </c>
       <c r="E1951" t="n">
-        <v>11218889713.87</v>
+        <v>11218891305.99</v>
       </c>
     </row>
     <row r="1952">
@@ -41428,7 +41428,7 @@
         <v>617929239.51</v>
       </c>
       <c r="E1952" t="n">
-        <v>11595571997.69</v>
+        <v>11595573643.26</v>
       </c>
     </row>
     <row r="1953">
@@ -41449,7 +41449,7 @@
         <v>249993129.03</v>
       </c>
       <c r="E1953" t="n">
-        <v>11737561133.81</v>
+        <v>11737562799.54</v>
       </c>
     </row>
     <row r="1954">
@@ -41470,7 +41470,7 @@
         <v>284871670.26</v>
       </c>
       <c r="E1954" t="n">
-        <v>11503189835.83</v>
+        <v>11503191468.29</v>
       </c>
     </row>
     <row r="1955">
@@ -41491,7 +41491,7 @@
         <v>408139480.01</v>
       </c>
       <c r="E1955" t="n">
-        <v>11539285148.32</v>
+        <v>11539286785.9</v>
       </c>
     </row>
     <row r="1956">
@@ -41512,7 +41512,7 @@
         <v>381731733.35</v>
       </c>
       <c r="E1956" t="n">
-        <v>11973810031.75</v>
+        <v>11973811731</v>
       </c>
     </row>
     <row r="1957">
@@ -41533,7 +41533,7 @@
         <v>476625946.93</v>
       </c>
       <c r="E1957" t="n">
-        <v>11491567252.73</v>
+        <v>11491568883.54</v>
       </c>
     </row>
     <row r="1958">
@@ -41554,7 +41554,7 @@
         <v>558347339.34</v>
       </c>
       <c r="E1958" t="n">
-        <v>12260410702.05</v>
+        <v>12260412441.97</v>
       </c>
     </row>
     <row r="1959">
@@ -41575,7 +41575,7 @@
         <v>475033039.54</v>
       </c>
       <c r="E1959" t="n">
-        <v>12824809289.21</v>
+        <v>12824811109.23</v>
       </c>
     </row>
     <row r="1960">
@@ -41596,7 +41596,7 @@
         <v>330264423.56</v>
       </c>
       <c r="E1960" t="n">
-        <v>12361272096.67</v>
+        <v>12361273850.9</v>
       </c>
     </row>
     <row r="1961">
@@ -41617,7 +41617,7 @@
         <v>345042481.37</v>
       </c>
       <c r="E1961" t="n">
-        <v>12247667422.33</v>
+        <v>12247669160.44</v>
       </c>
     </row>
     <row r="1962">
@@ -41638,7 +41638,7 @@
         <v>445955041.23</v>
       </c>
       <c r="E1962" t="n">
-        <v>11654386818.02</v>
+        <v>11654388471.94</v>
       </c>
     </row>
     <row r="1963">
@@ -41659,7 +41659,7 @@
         <v>714970336.66</v>
       </c>
       <c r="E1963" t="n">
-        <v>10901722912.63</v>
+        <v>10901724459.73</v>
       </c>
     </row>
     <row r="1964">
@@ -41680,7 +41680,7 @@
         <v>475402115.73</v>
       </c>
       <c r="E1964" t="n">
-        <v>10690477941.3</v>
+        <v>10690479458.42</v>
       </c>
     </row>
     <row r="1965">
@@ -41701,7 +41701,7 @@
         <v>455508382.62</v>
       </c>
       <c r="E1965" t="n">
-        <v>10375702393.7</v>
+        <v>10375703866.15</v>
       </c>
     </row>
     <row r="1966">
@@ -41722,7 +41722,7 @@
         <v>382907340.72</v>
       </c>
       <c r="E1966" t="n">
-        <v>11051655829.61</v>
+        <v>11051657397.99</v>
       </c>
     </row>
     <row r="1967">
@@ -41743,7 +41743,7 @@
         <v>240390650.24</v>
       </c>
       <c r="E1967" t="n">
-        <v>10816378710.87</v>
+        <v>10816380245.87</v>
       </c>
     </row>
     <row r="1968">
@@ -41764,7 +41764,7 @@
         <v>283370330.25</v>
       </c>
       <c r="E1968" t="n">
-        <v>11330059281.98</v>
+        <v>11330060889.87</v>
       </c>
     </row>
     <row r="1969">
@@ -41785,7 +41785,7 @@
         <v>379972957.84</v>
       </c>
       <c r="E1969" t="n">
-        <v>11192750130.96</v>
+        <v>11192751719.36</v>
       </c>
     </row>
     <row r="1970">
@@ -41806,7 +41806,7 @@
         <v>315711906.98</v>
       </c>
       <c r="E1970" t="n">
-        <v>11097908119.62</v>
+        <v>11097909694.57</v>
       </c>
     </row>
     <row r="1971">
@@ -41827,7 +41827,7 @@
         <v>340966836.77</v>
       </c>
       <c r="E1971" t="n">
-        <v>10853640191.56</v>
+        <v>10853641731.85</v>
       </c>
     </row>
     <row r="1972">
@@ -41848,7 +41848,7 @@
         <v>297187093.81</v>
       </c>
       <c r="E1972" t="n">
-        <v>10885651505.87</v>
+        <v>10885653050.7</v>
       </c>
     </row>
     <row r="1973">
@@ -41869,7 +41869,7 @@
         <v>330297784.56</v>
       </c>
       <c r="E1973" t="n">
-        <v>11541279859.95</v>
+        <v>11541281497.82</v>
       </c>
     </row>
     <row r="1974">
@@ -41890,7 +41890,7 @@
         <v>423335838.31</v>
       </c>
       <c r="E1974" t="n">
-        <v>12056390961.66</v>
+        <v>12056392672.63</v>
       </c>
     </row>
     <row r="1975">
@@ -41911,7 +41911,7 @@
         <v>352161641.97</v>
       </c>
       <c r="E1975" t="n">
-        <v>12284146843.14</v>
+        <v>12284148586.43</v>
       </c>
     </row>
     <row r="1976">
@@ -41932,7 +41932,7 @@
         <v>486920169.62</v>
       </c>
       <c r="E1976" t="n">
-        <v>12244816811.29</v>
+        <v>12244818549</v>
       </c>
     </row>
     <row r="1977">
@@ -41953,7 +41953,7 @@
         <v>600495409.4</v>
       </c>
       <c r="E1977" t="n">
-        <v>11859814510.08</v>
+        <v>11859816193.16</v>
       </c>
     </row>
     <row r="1978">
@@ -41974,7 +41974,7 @@
         <v>399731766.09</v>
       </c>
       <c r="E1978" t="n">
-        <v>11806925723.35</v>
+        <v>11806927398.91</v>
       </c>
     </row>
     <row r="1979">
@@ -41995,7 +41995,7 @@
         <v>295806627.54</v>
       </c>
       <c r="E1979" t="n">
-        <v>11478545664.83</v>
+        <v>11478547293.79</v>
       </c>
     </row>
     <row r="1980">
@@ -42016,7 +42016,7 @@
         <v>218600156.26</v>
       </c>
       <c r="E1980" t="n">
-        <v>11837173731.77</v>
+        <v>11837175411.63</v>
       </c>
     </row>
     <row r="1981">
@@ -42037,7 +42037,7 @@
         <v>168123058.64</v>
       </c>
       <c r="E1981" t="n">
-        <v>11836416085.85</v>
+        <v>11836417765.6</v>
       </c>
     </row>
     <row r="1982">
@@ -42058,7 +42058,7 @@
         <v>198530403.72</v>
       </c>
       <c r="E1982" t="n">
-        <v>12167691750.29</v>
+        <v>12167693477.05</v>
       </c>
     </row>
     <row r="1983">
@@ -42079,7 +42079,7 @@
         <v>309790088.56</v>
       </c>
       <c r="E1983" t="n">
-        <v>11693464978.83</v>
+        <v>11693466638.29</v>
       </c>
     </row>
     <row r="1984">
@@ -42100,7 +42100,7 @@
         <v>367994982.06</v>
       </c>
       <c r="E1984" t="n">
-        <v>11623631144.59</v>
+        <v>11623632794.15</v>
       </c>
     </row>
     <row r="1985">
@@ -42121,7 +42121,7 @@
         <v>344756480.21</v>
       </c>
       <c r="E1985" t="n">
-        <v>11271194193.16</v>
+        <v>11271195792.7</v>
       </c>
     </row>
     <row r="1986">
@@ -42142,7 +42142,7 @@
         <v>297565679.06</v>
       </c>
       <c r="E1986" t="n">
-        <v>11306956748.15</v>
+        <v>11306958352.76</v>
       </c>
     </row>
     <row r="1987">
@@ -42163,7 +42163,7 @@
         <v>393145295.45</v>
       </c>
       <c r="E1987" t="n">
-        <v>10413243880.1</v>
+        <v>10413245357.88</v>
       </c>
     </row>
     <row r="1988">
@@ -42184,7 +42184,7 @@
         <v>241845089.53</v>
       </c>
       <c r="E1988" t="n">
-        <v>10685732865.81</v>
+        <v>10685734382.26</v>
       </c>
     </row>
     <row r="1989">
@@ -42205,7 +42205,7 @@
         <v>152964681.84</v>
       </c>
       <c r="E1989" t="n">
-        <v>10826632274.17</v>
+        <v>10826633810.62</v>
       </c>
     </row>
     <row r="1990">
@@ -42226,7 +42226,7 @@
         <v>317481431.45</v>
       </c>
       <c r="E1990" t="n">
-        <v>11058206261.5</v>
+        <v>11058207830.82</v>
       </c>
     </row>
     <row r="1991">
@@ -42247,7 +42247,7 @@
         <v>342986871.96</v>
       </c>
       <c r="E1991" t="n">
-        <v>11305432561.65</v>
+        <v>11305434166.04</v>
       </c>
     </row>
     <row r="1992">
@@ -42268,7 +42268,7 @@
         <v>307043579.24</v>
       </c>
       <c r="E1992" t="n">
-        <v>11028409427.63</v>
+        <v>11028410992.71</v>
       </c>
     </row>
     <row r="1993">
@@ -42289,7 +42289,7 @@
         <v>281130519.28</v>
       </c>
       <c r="E1993" t="n">
-        <v>10540122786.59</v>
+        <v>10540124282.38</v>
       </c>
     </row>
     <row r="1994">
@@ -42310,7 +42310,7 @@
         <v>297901041.83</v>
       </c>
       <c r="E1994" t="n">
-        <v>10439031473.05</v>
+        <v>10439032954.49</v>
       </c>
     </row>
     <row r="1995">
@@ -42331,7 +42331,7 @@
         <v>192734182.07</v>
       </c>
       <c r="E1995" t="n">
-        <v>10144418917.62</v>
+        <v>10144420357.25</v>
       </c>
     </row>
     <row r="1996">
@@ -42352,7 +42352,7 @@
         <v>337058108.33</v>
       </c>
       <c r="E1996" t="n">
-        <v>9916213046.6</v>
+        <v>9916214453.85</v>
       </c>
     </row>
     <row r="1997">
@@ -42373,7 +42373,7 @@
         <v>330905487.53</v>
       </c>
       <c r="E1997" t="n">
-        <v>9563115744.74</v>
+        <v>9563117101.879999</v>
       </c>
     </row>
     <row r="1998">
@@ -42394,7 +42394,7 @@
         <v>309257822.28</v>
       </c>
       <c r="E1998" t="n">
-        <v>10090823200.29</v>
+        <v>10090824632.32</v>
       </c>
     </row>
     <row r="1999">
@@ -42415,7 +42415,7 @@
         <v>733680233.4400001</v>
       </c>
       <c r="E1999" t="n">
-        <v>11378049326.87</v>
+        <v>11378050941.57</v>
       </c>
     </row>
     <row r="2000">
@@ -42436,7 +42436,7 @@
         <v>577279187.96</v>
       </c>
       <c r="E2000" t="n">
-        <v>11530177294.64</v>
+        <v>11530178930.93</v>
       </c>
     </row>
     <row r="2001">
@@ -42457,7 +42457,7 @@
         <v>553517808.28</v>
       </c>
       <c r="E2001" t="n">
-        <v>12075343664</v>
+        <v>12075345377.66</v>
       </c>
     </row>
     <row r="2002">
@@ -42478,7 +42478,7 @@
         <v>546421022.53</v>
       </c>
       <c r="E2002" t="n">
-        <v>12680114045.74</v>
+        <v>12680115845.23</v>
       </c>
     </row>
     <row r="2003">
@@ -42499,7 +42499,7 @@
         <v>1208671357.99</v>
       </c>
       <c r="E2003" t="n">
-        <v>13466222946.6</v>
+        <v>13466224857.64</v>
       </c>
     </row>
     <row r="2004">
@@ -42520,7 +42520,7 @@
         <v>1456086321.48</v>
       </c>
       <c r="E2004" t="n">
-        <v>14969343715.69</v>
+        <v>14969345840.05</v>
       </c>
     </row>
     <row r="2005">
@@ -42541,7 +42541,7 @@
         <v>1908058360.49</v>
       </c>
       <c r="E2005" t="n">
-        <v>14437367304.49</v>
+        <v>14437369353.35</v>
       </c>
     </row>
     <row r="2006">
@@ -42562,7 +42562,7 @@
         <v>1532906848.81</v>
       </c>
       <c r="E2006" t="n">
-        <v>13955186300.18</v>
+        <v>13955188280.61</v>
       </c>
     </row>
     <row r="2007">
@@ -42583,7 +42583,7 @@
         <v>892106456.51</v>
       </c>
       <c r="E2007" t="n">
-        <v>13137017808.26</v>
+        <v>13137019672.58</v>
       </c>
     </row>
     <row r="2008">
@@ -42604,7 +42604,7 @@
         <v>674471425.85</v>
       </c>
       <c r="E2008" t="n">
-        <v>13923844206.52</v>
+        <v>13923846182.51</v>
       </c>
     </row>
     <row r="2009">
@@ -42625,7 +42625,7 @@
         <v>878997830.36</v>
       </c>
       <c r="E2009" t="n">
-        <v>14812772642.2</v>
+        <v>14812774744.33</v>
       </c>
     </row>
     <row r="2010">
@@ -42646,7 +42646,7 @@
         <v>1206875386.37</v>
       </c>
       <c r="E2010" t="n">
-        <v>14615996780.15</v>
+        <v>14615998854.36</v>
       </c>
     </row>
     <row r="2011">
@@ -42667,7 +42667,7 @@
         <v>882350582.88</v>
       </c>
       <c r="E2011" t="n">
-        <v>14881612702.94</v>
+        <v>14881614814.85</v>
       </c>
     </row>
     <row r="2012">
@@ -42688,7 +42688,7 @@
         <v>685941712.0700001</v>
       </c>
       <c r="E2012" t="n">
-        <v>14455737128.13</v>
+        <v>14455739179.6</v>
       </c>
     </row>
     <row r="2013">
@@ -42709,7 +42709,7 @@
         <v>814665617.53</v>
       </c>
       <c r="E2013" t="n">
-        <v>14186275576.15</v>
+        <v>14186277589.37</v>
       </c>
     </row>
     <row r="2014">
@@ -42730,7 +42730,7 @@
         <v>1012956044.09</v>
       </c>
       <c r="E2014" t="n">
-        <v>15089983643.37</v>
+        <v>15089985784.85</v>
       </c>
     </row>
     <row r="2015">
@@ -42751,7 +42751,7 @@
         <v>1877823786.32</v>
       </c>
       <c r="E2015" t="n">
-        <v>18127417430.16</v>
+        <v>18127420002.69</v>
       </c>
     </row>
     <row r="2016">
@@ -42772,7 +42772,7 @@
         <v>2041229524.96</v>
       </c>
       <c r="E2016" t="n">
-        <v>17451770199.37</v>
+        <v>17451772676.01</v>
       </c>
     </row>
     <row r="2017">
@@ -42793,7 +42793,7 @@
         <v>1418708573.06</v>
       </c>
       <c r="E2017" t="n">
-        <v>17723232442.12</v>
+        <v>17723234957.29</v>
       </c>
     </row>
     <row r="2018">
@@ -42814,7 +42814,7 @@
         <v>2124646352.2</v>
       </c>
       <c r="E2018" t="n">
-        <v>17439496598.85</v>
+        <v>17439499073.76</v>
       </c>
     </row>
     <row r="2019">
@@ -42835,7 +42835,7 @@
         <v>1524240543.44</v>
       </c>
       <c r="E2019" t="n">
-        <v>17959831121.77</v>
+        <v>17959833670.51</v>
       </c>
     </row>
     <row r="2020">
@@ -42856,7 +42856,7 @@
         <v>1239431258.74</v>
       </c>
       <c r="E2020" t="n">
-        <v>18506801513.1</v>
+        <v>18506804139.47</v>
       </c>
     </row>
     <row r="2021">
@@ -42877,7 +42877,7 @@
         <v>738028198.54</v>
       </c>
       <c r="E2021" t="n">
-        <v>18067148106</v>
+        <v>18067150669.98</v>
       </c>
     </row>
     <row r="2022">
@@ -42898,7 +42898,7 @@
         <v>720142029.96</v>
       </c>
       <c r="E2022" t="n">
-        <v>18949150054.18</v>
+        <v>18949152743.32</v>
       </c>
     </row>
     <row r="2023">
@@ -42919,7 +42919,7 @@
         <v>806737860.13</v>
       </c>
       <c r="E2023" t="n">
-        <v>18936766022.02</v>
+        <v>18936768709.41</v>
       </c>
     </row>
     <row r="2024">
@@ -42940,7 +42940,7 @@
         <v>779851783.77</v>
       </c>
       <c r="E2024" t="n">
-        <v>19054225782.78</v>
+        <v>19054228486.84</v>
       </c>
     </row>
     <row r="2025">
@@ -42961,7 +42961,7 @@
         <v>3316658525.67</v>
       </c>
       <c r="E2025" t="n">
-        <v>21932452019.5</v>
+        <v>21932455132.02</v>
       </c>
     </row>
     <row r="2026">
@@ -42982,7 +42982,7 @@
         <v>2142959427.29</v>
       </c>
       <c r="E2026" t="n">
-        <v>21569238651.92</v>
+        <v>21569241712.89</v>
       </c>
     </row>
     <row r="2027">
@@ -43003,7 +43003,7 @@
         <v>1883588208.94</v>
       </c>
       <c r="E2027" t="n">
-        <v>22214340971</v>
+        <v>22214344123.52</v>
       </c>
     </row>
     <row r="2028">
@@ -43024,7 +43024,7 @@
         <v>1550536730.43</v>
       </c>
       <c r="E2028" t="n">
-        <v>21316338990.8</v>
+        <v>21316342015.88</v>
       </c>
     </row>
     <row r="2029">
@@ -43045,7 +43045,7 @@
         <v>1059219612.99</v>
       </c>
       <c r="E2029" t="n">
-        <v>22173387580.56</v>
+        <v>22173390727.27</v>
       </c>
     </row>
     <row r="2030">
@@ -43066,7 +43066,7 @@
         <v>595705005.4</v>
       </c>
       <c r="E2030" t="n">
-        <v>21794558567.66</v>
+        <v>21794561660.6</v>
       </c>
     </row>
     <row r="2031">
@@ -43087,7 +43087,7 @@
         <v>813766135.8200001</v>
       </c>
       <c r="E2031" t="n">
-        <v>22815173895.11</v>
+        <v>22815177132.9</v>
       </c>
     </row>
     <row r="2032">
@@ -43108,7 +43108,7 @@
         <v>1822936716.11</v>
       </c>
       <c r="E2032" t="n">
-        <v>19028495850.21</v>
+        <v>19028498550.62</v>
       </c>
     </row>
     <row r="2033">
@@ -43129,7 +43129,7 @@
         <v>1490193817.8</v>
       </c>
       <c r="E2033" t="n">
-        <v>18780563840.36</v>
+        <v>18780566505.58</v>
       </c>
     </row>
     <row r="2034">
@@ -43150,7 +43150,7 @@
         <v>863695776.0599999</v>
       </c>
       <c r="E2034" t="n">
-        <v>20318982704.9</v>
+        <v>20318985588.44</v>
       </c>
     </row>
     <row r="2035">
@@ -43171,7 +43171,7 @@
         <v>1840832995.76</v>
       </c>
       <c r="E2035" t="n">
-        <v>22291023456.97</v>
+        <v>22291026620.38</v>
       </c>
     </row>
     <row r="2036">
@@ -43192,7 +43192,7 @@
         <v>959125518.59</v>
       </c>
       <c r="E2036" t="n">
-        <v>22077713136.25</v>
+        <v>22077716269.38</v>
       </c>
     </row>
     <row r="2037">
@@ -43213,7 +43213,7 @@
         <v>766787795.0599999</v>
       </c>
       <c r="E2037" t="n">
-        <v>21008508553.44</v>
+        <v>21008511534.83</v>
       </c>
     </row>
     <row r="2038">
@@ -43234,7 +43234,7 @@
         <v>810485140.8099999</v>
       </c>
       <c r="E2038" t="n">
-        <v>21476449719.6</v>
+        <v>21476452767.4</v>
       </c>
     </row>
     <row r="2039">
@@ -43255,7 +43255,7 @@
         <v>908109971.1799999</v>
       </c>
       <c r="E2039" t="n">
-        <v>20691304382.05</v>
+        <v>20691307318.43</v>
       </c>
     </row>
     <row r="2040">
@@ -43276,7 +43276,7 @@
         <v>694641949.74</v>
       </c>
       <c r="E2040" t="n">
-        <v>20133374509.25</v>
+        <v>20133377366.45</v>
       </c>
     </row>
     <row r="2041">
@@ -43297,7 +43297,7 @@
         <v>1085276379.25</v>
       </c>
       <c r="E2041" t="n">
-        <v>18035598999.39</v>
+        <v>18035601558.89</v>
       </c>
     </row>
     <row r="2042">
@@ -43318,7 +43318,7 @@
         <v>1249004627.19</v>
       </c>
       <c r="E2042" t="n">
-        <v>16456746361.37</v>
+        <v>16456748696.81</v>
       </c>
     </row>
     <row r="2043">
@@ -43339,7 +43339,7 @@
         <v>1223452752.23</v>
       </c>
       <c r="E2043" t="n">
-        <v>16751644272.89</v>
+        <v>16751646650.18</v>
       </c>
     </row>
     <row r="2044">
@@ -43360,7 +43360,7 @@
         <v>610062418.62</v>
       </c>
       <c r="E2044" t="n">
-        <v>15739936429.09</v>
+        <v>15739938662.8</v>
       </c>
     </row>
     <row r="2045">
@@ -43381,7 +43381,7 @@
         <v>490425231.74</v>
       </c>
       <c r="E2045" t="n">
-        <v>15377806629.8</v>
+        <v>15377808812.12</v>
       </c>
     </row>
     <row r="2046">
@@ -43402,7 +43402,7 @@
         <v>717211697.05</v>
       </c>
       <c r="E2046" t="n">
-        <v>16425893897.53</v>
+        <v>16425896228.59</v>
       </c>
     </row>
     <row r="2047">
@@ -43423,7 +43423,7 @@
         <v>575992424.34</v>
       </c>
       <c r="E2047" t="n">
-        <v>17369326266.52</v>
+        <v>17369328731.47</v>
       </c>
     </row>
     <row r="2048">
@@ -43444,7 +43444,7 @@
         <v>334649780.45</v>
       </c>
       <c r="E2048" t="n">
-        <v>16956585657.27</v>
+        <v>16956588063.64</v>
       </c>
     </row>
     <row r="2049">
@@ -43465,7 +43465,7 @@
         <v>445525494.31</v>
       </c>
       <c r="E2049" t="n">
-        <v>15694641147.4</v>
+        <v>15694643374.68</v>
       </c>
     </row>
     <row r="2050">
@@ -43486,7 +43486,7 @@
         <v>413702114.38</v>
       </c>
       <c r="E2050" t="n">
-        <v>15358369506.93</v>
+        <v>15358371686.5</v>
       </c>
     </row>
     <row r="2051">
@@ -43507,7 +43507,7 @@
         <v>279301507.14</v>
       </c>
       <c r="E2051" t="n">
-        <v>15859449850.93</v>
+        <v>15859452101.6</v>
       </c>
     </row>
     <row r="2052">
@@ -43528,7 +43528,7 @@
         <v>287337697.63</v>
       </c>
       <c r="E2052" t="n">
-        <v>15100083585.15</v>
+        <v>15100085728.06</v>
       </c>
     </row>
     <row r="2053">
@@ -43549,7 +43549,7 @@
         <v>510154209.89</v>
       </c>
       <c r="E2053" t="n">
-        <v>15119428156.05</v>
+        <v>15119430301.71</v>
       </c>
     </row>
     <row r="2054">
@@ -43570,7 +43570,7 @@
         <v>336545924.23</v>
       </c>
       <c r="E2054" t="n">
-        <v>15022321016.38</v>
+        <v>15022323148.25</v>
       </c>
     </row>
     <row r="2055">
@@ -43591,7 +43591,7 @@
         <v>306625837.42</v>
       </c>
       <c r="E2055" t="n">
-        <v>15844731107.71</v>
+        <v>15844733356.29</v>
       </c>
     </row>
     <row r="2056">
@@ -43612,7 +43612,7 @@
         <v>477726471.01</v>
       </c>
       <c r="E2056" t="n">
-        <v>16520956077.91</v>
+        <v>16520958422.46</v>
       </c>
     </row>
     <row r="2057">
@@ -43633,7 +43633,7 @@
         <v>575540255.86</v>
       </c>
       <c r="E2057" t="n">
-        <v>17609571441.05</v>
+        <v>17609573940.09</v>
       </c>
     </row>
     <row r="2058">
@@ -43654,7 +43654,7 @@
         <v>400210212.91</v>
       </c>
       <c r="E2058" t="n">
-        <v>17973490660.5</v>
+        <v>17973493211.19</v>
       </c>
     </row>
     <row r="2059">
@@ -43675,7 +43675,7 @@
         <v>364122276.3</v>
       </c>
       <c r="E2059" t="n">
-        <v>18130835963.19</v>
+        <v>18130838536.21</v>
       </c>
     </row>
     <row r="2060">
@@ -43696,7 +43696,7 @@
         <v>633072768.66</v>
       </c>
       <c r="E2060" t="n">
-        <v>18525964797.34</v>
+        <v>18525967426.43</v>
       </c>
     </row>
     <row r="2061">
@@ -43717,7 +43717,7 @@
         <v>624382368.38</v>
       </c>
       <c r="E2061" t="n">
-        <v>16572076576.42</v>
+        <v>16572078928.23</v>
       </c>
     </row>
     <row r="2062">
@@ -43738,7 +43738,7 @@
         <v>595606280.17</v>
       </c>
       <c r="E2062" t="n">
-        <v>15751324586.6</v>
+        <v>15751326821.93</v>
       </c>
     </row>
     <row r="2063">
@@ -43759,7 +43759,7 @@
         <v>419966079.35</v>
       </c>
       <c r="E2063" t="n">
-        <v>15246862929.03</v>
+        <v>15246865092.77</v>
       </c>
     </row>
     <row r="2064">
@@ -43780,7 +43780,7 @@
         <v>428041375.29</v>
       </c>
       <c r="E2064" t="n">
-        <v>15462862334.79</v>
+        <v>15462864529.19</v>
       </c>
     </row>
     <row r="2065">
@@ -43801,7 +43801,7 @@
         <v>224420090.78</v>
       </c>
       <c r="E2065" t="n">
-        <v>15633099213.15</v>
+        <v>15633101431.7</v>
       </c>
     </row>
     <row r="2066">
@@ -43822,7 +43822,7 @@
         <v>177566886.62</v>
       </c>
       <c r="E2066" t="n">
-        <v>15378680198.15</v>
+        <v>15378682380.6</v>
       </c>
     </row>
     <row r="2067">
@@ -43843,7 +43843,7 @@
         <v>545478775.85</v>
       </c>
       <c r="E2067" t="n">
-        <v>14863946985.5</v>
+        <v>14863949094.89</v>
       </c>
     </row>
     <row r="2068">
@@ -43864,7 +43864,7 @@
         <v>294643949.58</v>
       </c>
       <c r="E2068" t="n">
-        <v>15374086855.47</v>
+        <v>15374089037.26</v>
       </c>
     </row>
     <row r="2069">
@@ -43885,7 +43885,7 @@
         <v>520759029.57</v>
       </c>
       <c r="E2069" t="n">
-        <v>16780503563.92</v>
+        <v>16780505945.3</v>
       </c>
     </row>
     <row r="2070">
@@ -43906,7 +43906,7 @@
         <v>475282480.14</v>
       </c>
       <c r="E2070" t="n">
-        <v>16844883281.61</v>
+        <v>16844885672.13</v>
       </c>
     </row>
     <row r="2071">
@@ -43927,7 +43927,7 @@
         <v>449468343.97</v>
       </c>
       <c r="E2071" t="n">
-        <v>17450585302.25</v>
+        <v>17450587778.73</v>
       </c>
     </row>
     <row r="2072">
@@ -43948,7 +43948,7 @@
         <v>494353205.75</v>
       </c>
       <c r="E2072" t="n">
-        <v>16544113578.71</v>
+        <v>16544115926.54</v>
       </c>
     </row>
     <row r="2073">
@@ -43969,7 +43969,7 @@
         <v>836591656.09</v>
       </c>
       <c r="E2073" t="n">
-        <v>15054906965.93</v>
+        <v>15054909102.43</v>
       </c>
     </row>
     <row r="2074">
@@ -43990,7 +43990,7 @@
         <v>1106122470.57</v>
       </c>
       <c r="E2074" t="n">
-        <v>15067314318.75</v>
+        <v>15067316457.01</v>
       </c>
     </row>
     <row r="2075">
@@ -44011,7 +44011,7 @@
         <v>544004394.49</v>
       </c>
       <c r="E2075" t="n">
-        <v>15561042807.22</v>
+        <v>15561045015.54</v>
       </c>
     </row>
     <row r="2076">
@@ -44032,7 +44032,7 @@
         <v>317840517.51</v>
       </c>
       <c r="E2076" t="n">
-        <v>15460713728.38</v>
+        <v>15460715922.47</v>
       </c>
     </row>
     <row r="2077">
@@ -44053,7 +44053,7 @@
         <v>480762165.98</v>
       </c>
       <c r="E2077" t="n">
-        <v>14987740839.89</v>
+        <v>14987742966.85</v>
       </c>
     </row>
     <row r="2078">
@@ -44074,7 +44074,7 @@
         <v>573841861.4400001</v>
       </c>
       <c r="E2078" t="n">
-        <v>14864775636.34</v>
+        <v>14864777745.86</v>
       </c>
     </row>
     <row r="2079">
@@ -44095,7 +44095,7 @@
         <v>646485415.72</v>
       </c>
       <c r="E2079" t="n">
-        <v>15445134200.89</v>
+        <v>15445136392.76</v>
       </c>
     </row>
     <row r="2080">
@@ -44116,7 +44116,7 @@
         <v>341685545.49</v>
       </c>
       <c r="E2080" t="n">
-        <v>15087660915.46</v>
+        <v>15087663056.61</v>
       </c>
     </row>
     <row r="2081">
@@ -44137,7 +44137,7 @@
         <v>718469964.22</v>
       </c>
       <c r="E2081" t="n">
-        <v>14387264212.02</v>
+        <v>14387266253.77</v>
       </c>
     </row>
     <row r="2082">
@@ -44158,7 +44158,7 @@
         <v>352096026.85</v>
       </c>
       <c r="E2082" t="n">
-        <v>13553209834.77</v>
+        <v>13553211758.15</v>
       </c>
     </row>
     <row r="2083">
@@ -44179,7 +44179,7 @@
         <v>417326777.86</v>
       </c>
       <c r="E2083" t="n">
-        <v>13834487710.22</v>
+        <v>13834489673.53</v>
       </c>
     </row>
     <row r="2084">
@@ -44200,7 +44200,7 @@
         <v>323831189.87</v>
       </c>
       <c r="E2084" t="n">
-        <v>14446257080.27</v>
+        <v>14446259130.39</v>
       </c>
     </row>
     <row r="2085">
@@ -44221,7 +44221,7 @@
         <v>418083856.84</v>
       </c>
       <c r="E2085" t="n">
-        <v>14486859346.02</v>
+        <v>14486861401.91</v>
       </c>
     </row>
     <row r="2086">
@@ -44242,7 +44242,7 @@
         <v>295157477.65</v>
       </c>
       <c r="E2086" t="n">
-        <v>13569472431.69</v>
+        <v>13569474357.38</v>
       </c>
     </row>
     <row r="2087">
@@ -44263,7 +44263,7 @@
         <v>807967874.59</v>
       </c>
       <c r="E2087" t="n">
-        <v>11554922141.95</v>
+        <v>11554923781.75</v>
       </c>
     </row>
     <row r="2088">
@@ -44284,7 +44284,7 @@
         <v>1927448390.39</v>
       </c>
       <c r="E2088" t="n">
-        <v>11952424751.34</v>
+        <v>11952426447.56</v>
       </c>
     </row>
     <row r="2089">
@@ -44305,7 +44305,7 @@
         <v>694207906.1900001</v>
       </c>
       <c r="E2089" t="n">
-        <v>11159973295.79</v>
+        <v>11159974879.54</v>
       </c>
     </row>
     <row r="2090">
@@ -44326,7 +44326,7 @@
         <v>380278525.79</v>
       </c>
       <c r="E2090" t="n">
-        <v>10909151685.95</v>
+        <v>10909153234.11</v>
       </c>
     </row>
     <row r="2091">
@@ -44347,7 +44347,7 @@
         <v>370708013.8</v>
       </c>
       <c r="E2091" t="n">
-        <v>10310072160.19</v>
+        <v>10310073623.33</v>
       </c>
     </row>
     <row r="2092">
@@ -44368,7 +44368,7 @@
         <v>379452750.81</v>
       </c>
       <c r="E2092" t="n">
-        <v>10274837449.06</v>
+        <v>10274838907.2</v>
       </c>
     </row>
     <row r="2093">
@@ -44389,7 +44389,7 @@
         <v>193117215.57</v>
       </c>
       <c r="E2093" t="n">
-        <v>10354040383.68</v>
+        <v>10354041853.07</v>
       </c>
     </row>
     <row r="2094">
@@ -44410,7 +44410,7 @@
         <v>283366330.2</v>
       </c>
       <c r="E2094" t="n">
-        <v>10482297428.32</v>
+        <v>10482298915.9</v>
       </c>
     </row>
     <row r="2095">
@@ -44431,7 +44431,7 @@
         <v>331230256.22</v>
       </c>
       <c r="E2095" t="n">
-        <v>10775671440.48</v>
+        <v>10775672969.69</v>
       </c>
     </row>
     <row r="2096">
@@ -44452,7 +44452,7 @@
         <v>380358483.95</v>
       </c>
       <c r="E2096" t="n">
-        <v>10683065165.44</v>
+        <v>10683066681.52</v>
       </c>
     </row>
     <row r="2097">
@@ -44473,7 +44473,7 @@
         <v>465088572.2</v>
       </c>
       <c r="E2097" t="n">
-        <v>11157743668.39</v>
+        <v>11157745251.82</v>
       </c>
     </row>
     <row r="2098">
@@ -44494,7 +44494,7 @@
         <v>300989927.62</v>
       </c>
       <c r="E2098" t="n">
-        <v>10706323603.76</v>
+        <v>10706325123.13</v>
       </c>
     </row>
     <row r="2099">
@@ -44515,7 +44515,7 @@
         <v>321040606.4</v>
       </c>
       <c r="E2099" t="n">
-        <v>11109040643.5</v>
+        <v>11109042220.02</v>
       </c>
     </row>
     <row r="2100">
@@ -44536,7 +44536,7 @@
         <v>201184817.1</v>
       </c>
       <c r="E2100" t="n">
-        <v>10733238435.31</v>
+        <v>10733239958.5</v>
       </c>
     </row>
     <row r="2101">
@@ -44557,7 +44557,7 @@
         <v>215351067.56</v>
       </c>
       <c r="E2101" t="n">
-        <v>10466314459.07</v>
+        <v>10466315944.38</v>
       </c>
     </row>
     <row r="2102">
@@ -44578,7 +44578,7 @@
         <v>342179974.02</v>
       </c>
       <c r="E2102" t="n">
-        <v>10534033254.54</v>
+        <v>10534034749.47</v>
       </c>
     </row>
     <row r="2103">
@@ -44599,7 +44599,7 @@
         <v>390655774.48</v>
       </c>
       <c r="E2103" t="n">
-        <v>9892137846.32</v>
+        <v>9892139250.15</v>
       </c>
     </row>
     <row r="2104">
@@ -44620,7 +44620,7 @@
         <v>296857138.59</v>
       </c>
       <c r="E2104" t="n">
-        <v>9984980202.440001</v>
+        <v>9984981619.450001</v>
       </c>
     </row>
     <row r="2105">
@@ -44641,7 +44641,7 @@
         <v>364329382.91</v>
       </c>
       <c r="E2105" t="n">
-        <v>10594899808.96</v>
+        <v>10594901312.52</v>
       </c>
     </row>
     <row r="2106">
@@ -44662,7 +44662,7 @@
         <v>614127933.58</v>
       </c>
       <c r="E2106" t="n">
-        <v>10343092989.12</v>
+        <v>10343094456.94</v>
       </c>
     </row>
     <row r="2107">
@@ -44683,7 +44683,7 @@
         <v>397645316.88</v>
       </c>
       <c r="E2107" t="n">
-        <v>10863495816.98</v>
+        <v>10863497358.66</v>
       </c>
     </row>
     <row r="2108">
@@ -44704,7 +44704,7 @@
         <v>253625758.55</v>
       </c>
       <c r="E2108" t="n">
-        <v>10476412113.87</v>
+        <v>10476413600.62</v>
       </c>
     </row>
     <row r="2109">
@@ -44725,7 +44725,7 @@
         <v>570735152.51</v>
       </c>
       <c r="E2109" t="n">
-        <v>9188012465.639999</v>
+        <v>9188013769.549999</v>
       </c>
     </row>
     <row r="2110">
@@ -44746,7 +44746,7 @@
         <v>971942575.89</v>
       </c>
       <c r="E2110" t="n">
-        <v>9247261389.049999</v>
+        <v>9247262701.360001</v>
       </c>
     </row>
     <row r="2111">
@@ -44767,7 +44767,7 @@
         <v>540237075.65</v>
       </c>
       <c r="E2111" t="n">
-        <v>9169407614.67</v>
+        <v>9169408915.940001</v>
       </c>
     </row>
     <row r="2112">
@@ -44788,7 +44788,7 @@
         <v>424935067.24</v>
       </c>
       <c r="E2112" t="n">
-        <v>9474814156.83</v>
+        <v>9474815501.440001</v>
       </c>
     </row>
     <row r="2113">
@@ -44809,7 +44809,7 @@
         <v>752744502.8099999</v>
       </c>
       <c r="E2113" t="n">
-        <v>9417493749.41</v>
+        <v>9417495085.879999</v>
       </c>
     </row>
     <row r="2114">
@@ -44830,7 +44830,7 @@
         <v>275225577.23</v>
       </c>
       <c r="E2114" t="n">
-        <v>9207941518.610001</v>
+        <v>9207942825.35</v>
       </c>
     </row>
     <row r="2115">
@@ -44851,7 +44851,7 @@
         <v>834666086.67</v>
       </c>
       <c r="E2115" t="n">
-        <v>10487496917.4</v>
+        <v>10487498405.72</v>
       </c>
     </row>
     <row r="2116">
@@ -44872,7 +44872,7 @@
         <v>626024637.36</v>
       </c>
       <c r="E2116" t="n">
-        <v>8829493358.41</v>
+        <v>8829494611.440001</v>
       </c>
     </row>
     <row r="2117">
@@ -44893,7 +44893,7 @@
         <v>787393437.1799999</v>
       </c>
       <c r="E2117" t="n">
-        <v>8433314568.36</v>
+        <v>8433315765.16</v>
       </c>
     </row>
     <row r="2118">
@@ -44914,7 +44914,7 @@
         <v>578331277.47</v>
       </c>
       <c r="E2118" t="n">
-        <v>9160331032.879999</v>
+        <v>9160332332.860001</v>
       </c>
     </row>
     <row r="2119">
@@ -44935,7 +44935,7 @@
         <v>500095934.05</v>
       </c>
       <c r="E2119" t="n">
-        <v>8869290818.940001</v>
+        <v>8869292077.610001</v>
       </c>
     </row>
     <row r="2120">
@@ -44956,7 +44956,7 @@
         <v>563021811.6799999</v>
       </c>
       <c r="E2120" t="n">
-        <v>8463568692.16</v>
+        <v>8463569893.26</v>
       </c>
     </row>
     <row r="2121">
@@ -44977,7 +44977,7 @@
         <v>303492044.4</v>
       </c>
       <c r="E2121" t="n">
-        <v>8617899401.690001</v>
+        <v>8617900624.68</v>
       </c>
     </row>
     <row r="2122">
@@ -44998,7 +44998,7 @@
         <v>319324503.76</v>
       </c>
       <c r="E2122" t="n">
-        <v>7568864835.84</v>
+        <v>7568865909.97</v>
       </c>
     </row>
     <row r="2123">
@@ -45019,7 +45019,7 @@
         <v>540555527.67</v>
       </c>
       <c r="E2123" t="n">
-        <v>6901099900.46</v>
+        <v>6901100879.82</v>
       </c>
     </row>
     <row r="2124">
@@ -45040,7 +45040,7 @@
         <v>686930717.25</v>
       </c>
       <c r="E2124" t="n">
-        <v>7375429910.48</v>
+        <v>7375430957.15</v>
       </c>
     </row>
     <row r="2125">
@@ -45061,7 +45061,7 @@
         <v>430731234.8</v>
       </c>
       <c r="E2125" t="n">
-        <v>7959564103.71</v>
+        <v>7959565233.28</v>
       </c>
     </row>
     <row r="2126">
@@ -45082,7 +45082,7 @@
         <v>361679225.07</v>
       </c>
       <c r="E2126" t="n">
-        <v>7788146211.48</v>
+        <v>7788147316.72</v>
       </c>
     </row>
     <row r="2127">
@@ -45103,7 +45103,7 @@
         <v>300373499.32</v>
       </c>
       <c r="E2127" t="n">
-        <v>7820627857.2</v>
+        <v>7820628967.05</v>
       </c>
     </row>
     <row r="2128">
@@ -45124,7 +45124,7 @@
         <v>273978084.73</v>
       </c>
       <c r="E2128" t="n">
-        <v>8179231794.34</v>
+        <v>8179232955.08</v>
       </c>
     </row>
     <row r="2129">
@@ -45145,7 +45145,7 @@
         <v>244193053.24</v>
       </c>
       <c r="E2129" t="n">
-        <v>7714288511.15</v>
+        <v>7714289605.91</v>
       </c>
     </row>
     <row r="2130">
@@ -45166,7 +45166,7 @@
         <v>261616336.76</v>
       </c>
       <c r="E2130" t="n">
-        <v>7929460698.65</v>
+        <v>7929461823.95</v>
       </c>
     </row>
     <row r="2131">
@@ -45187,7 +45187,7 @@
         <v>268636924.81</v>
       </c>
       <c r="E2131" t="n">
-        <v>8007966385.04</v>
+        <v>8007967521.48</v>
       </c>
     </row>
     <row r="2132">
@@ -45208,7 +45208,7 @@
         <v>388291274.57</v>
       </c>
       <c r="E2132" t="n">
-        <v>8308970911.1</v>
+        <v>8308972090.26</v>
       </c>
     </row>
     <row r="2133">
@@ -45229,7 +45229,7 @@
         <v>242429874.05</v>
       </c>
       <c r="E2133" t="n">
-        <v>7889278486.74</v>
+        <v>7889279606.33</v>
       </c>
     </row>
     <row r="2134">
@@ -45250,7 +45250,7 @@
         <v>195820647.9</v>
       </c>
       <c r="E2134" t="n">
-        <v>8065340218</v>
+        <v>8065341362.59</v>
       </c>
     </row>
     <row r="2135">
@@ -45271,7 +45271,7 @@
         <v>142900406.41</v>
       </c>
       <c r="E2135" t="n">
-        <v>8168081793.7</v>
+        <v>8168082952.86</v>
       </c>
     </row>
     <row r="2136">
@@ -45292,7 +45292,7 @@
         <v>159378923.57</v>
       </c>
       <c r="E2136" t="n">
-        <v>8328141798.59</v>
+        <v>8328142980.47</v>
       </c>
     </row>
     <row r="2137">
@@ -45313,7 +45313,7 @@
         <v>526659302.89</v>
       </c>
       <c r="E2137" t="n">
-        <v>9047008805.969999</v>
+        <v>9047010089.860001</v>
       </c>
     </row>
     <row r="2138">
@@ -45334,7 +45334,7 @@
         <v>390751933.51</v>
       </c>
       <c r="E2138" t="n">
-        <v>9650697340.15</v>
+        <v>9650698709.719999</v>
       </c>
     </row>
     <row r="2139">
@@ -45355,7 +45355,7 @@
         <v>293554599.09</v>
       </c>
       <c r="E2139" t="n">
-        <v>9303780844.01</v>
+        <v>9303782164.35</v>
       </c>
     </row>
     <row r="2140">
@@ -45376,7 +45376,7 @@
         <v>236199803.7</v>
       </c>
       <c r="E2140" t="n">
-        <v>9268239083.49</v>
+        <v>9268240398.780001</v>
       </c>
     </row>
     <row r="2141">
@@ -45397,7 +45397,7 @@
         <v>328693057.79</v>
       </c>
       <c r="E2141" t="n">
-        <v>8587660114.59</v>
+        <v>8587661333.29</v>
       </c>
     </row>
     <row r="2142">
@@ -45418,7 +45418,7 @@
         <v>247390449.99</v>
       </c>
       <c r="E2142" t="n">
-        <v>8283318280.9</v>
+        <v>8283319456.42</v>
       </c>
     </row>
     <row r="2143">
@@ -45439,7 +45439,7 @@
         <v>230110474.37</v>
       </c>
       <c r="E2143" t="n">
-        <v>7942115129.13</v>
+        <v>7942116256.23</v>
       </c>
     </row>
     <row r="2144">
@@ -45460,7 +45460,7 @@
         <v>260281127.28</v>
       </c>
       <c r="E2144" t="n">
-        <v>7904866806.7</v>
+        <v>7904867928.51</v>
       </c>
     </row>
     <row r="2145">
@@ -45481,7 +45481,7 @@
         <v>300137303.45</v>
       </c>
       <c r="E2145" t="n">
-        <v>8345790435.49</v>
+        <v>8345791619.87</v>
       </c>
     </row>
     <row r="2146">
@@ -45502,7 +45502,7 @@
         <v>483644183.77</v>
       </c>
       <c r="E2146" t="n">
-        <v>7581911012.33</v>
+        <v>7581912088.31</v>
       </c>
     </row>
     <row r="2147">
@@ -45523,7 +45523,7 @@
         <v>344253627.69</v>
       </c>
       <c r="E2147" t="n">
-        <v>7649937272.64</v>
+        <v>7649938358.27</v>
       </c>
     </row>
     <row r="2148">
@@ -45544,7 +45544,7 @@
         <v>350174949.08</v>
       </c>
       <c r="E2148" t="n">
-        <v>7658035152.14</v>
+        <v>7658036238.92</v>
       </c>
     </row>
     <row r="2149">
@@ -45565,7 +45565,7 @@
         <v>132267118.9</v>
       </c>
       <c r="E2149" t="n">
-        <v>7535376975.86</v>
+        <v>7535378045.23</v>
       </c>
     </row>
     <row r="2150">
@@ -45586,7 +45586,7 @@
         <v>353781020.11</v>
       </c>
       <c r="E2150" t="n">
-        <v>6727519634.09</v>
+        <v>6727520588.82</v>
       </c>
     </row>
     <row r="2151">
@@ -45607,7 +45607,7 @@
         <v>750151178.28</v>
       </c>
       <c r="E2151" t="n">
-        <v>7027777566.61</v>
+        <v>7027778563.95</v>
       </c>
     </row>
     <row r="2152">
@@ -45628,7 +45628,7 @@
         <v>372492520.59</v>
       </c>
       <c r="E2152" t="n">
-        <v>6780097327.58</v>
+        <v>6780098289.77</v>
       </c>
     </row>
     <row r="2153">
@@ -45649,7 +45649,7 @@
         <v>609643121.17</v>
       </c>
       <c r="E2153" t="n">
-        <v>7767062426.41</v>
+        <v>7767063528.67</v>
       </c>
     </row>
     <row r="2154">
@@ -45670,7 +45670,7 @@
         <v>293481770.61</v>
       </c>
       <c r="E2154" t="n">
-        <v>7712209815.01</v>
+        <v>7712210909.48</v>
       </c>
     </row>
     <row r="2155">
@@ -45691,7 +45691,7 @@
         <v>342863550.61</v>
       </c>
       <c r="E2155" t="n">
-        <v>8063613932.94</v>
+        <v>8063615077.27</v>
       </c>
     </row>
     <row r="2156">
@@ -45712,7 +45712,7 @@
         <v>341383099.41</v>
       </c>
       <c r="E2156" t="n">
-        <v>8618805569.34</v>
+        <v>8618806792.459999</v>
       </c>
     </row>
     <row r="2157">
@@ -45733,7 +45733,7 @@
         <v>278265531.52</v>
       </c>
       <c r="E2157" t="n">
-        <v>8220190673.55</v>
+        <v>8220191840.11</v>
       </c>
     </row>
     <row r="2158">
@@ -45754,7 +45754,7 @@
         <v>406919333.04</v>
       </c>
       <c r="E2158" t="n">
-        <v>8465131154.96</v>
+        <v>8465132356.28</v>
       </c>
     </row>
     <row r="2159">
@@ -45775,7 +45775,7 @@
         <v>276937259.67</v>
       </c>
       <c r="E2159" t="n">
-        <v>8013572838.74</v>
+        <v>8013573975.98</v>
       </c>
     </row>
     <row r="2160">
@@ -45796,7 +45796,7 @@
         <v>256604149.12</v>
       </c>
       <c r="E2160" t="n">
-        <v>7902738298.07</v>
+        <v>7902739419.58</v>
       </c>
     </row>
     <row r="2161">
@@ -45817,7 +45817,7 @@
         <v>200930194.11</v>
       </c>
       <c r="E2161" t="n">
-        <v>8029631293.16</v>
+        <v>8029632432.68</v>
       </c>
     </row>
     <row r="2162">
@@ -45838,7 +45838,7 @@
         <v>125777479.14</v>
       </c>
       <c r="E2162" t="n">
-        <v>8037638866.56</v>
+        <v>8037640007.21</v>
       </c>
     </row>
     <row r="2163">
@@ -45859,7 +45859,7 @@
         <v>183149820.59</v>
       </c>
       <c r="E2163" t="n">
-        <v>8389596321.64</v>
+        <v>8389597512.24</v>
       </c>
     </row>
     <row r="2164">
@@ -45880,7 +45880,7 @@
         <v>166429245.3</v>
       </c>
       <c r="E2164" t="n">
-        <v>8206478527.94</v>
+        <v>8206479692.55</v>
       </c>
     </row>
     <row r="2165">
@@ -45901,7 +45901,7 @@
         <v>364527995.99</v>
       </c>
       <c r="E2165" t="n">
-        <v>8354516179.09</v>
+        <v>8354517364.71</v>
       </c>
     </row>
     <row r="2166">
@@ -45922,7 +45922,7 @@
         <v>479854923.15</v>
       </c>
       <c r="E2166" t="n">
-        <v>9298703731.469999</v>
+        <v>9298705051.09</v>
       </c>
     </row>
     <row r="2167">
@@ -45943,7 +45943,7 @@
         <v>455146689.62</v>
       </c>
       <c r="E2167" t="n">
-        <v>9408009351.389999</v>
+        <v>9408010686.51</v>
       </c>
     </row>
     <row r="2168">
@@ -45964,7 +45964,7 @@
         <v>337236319.99</v>
       </c>
       <c r="E2168" t="n">
-        <v>9414959626.73</v>
+        <v>9414960962.84</v>
       </c>
     </row>
     <row r="2169">
@@ -45985,7 +45985,7 @@
         <v>385913417.65</v>
       </c>
       <c r="E2169" t="n">
-        <v>9353344860.530001</v>
+        <v>9353346187.9</v>
       </c>
     </row>
     <row r="2170">
@@ -46006,7 +46006,7 @@
         <v>295427267.08</v>
       </c>
       <c r="E2170" t="n">
-        <v>9441948228.1</v>
+        <v>9441949568.040001</v>
       </c>
     </row>
     <row r="2171">
@@ -46027,7 +46027,7 @@
         <v>260556605.88</v>
       </c>
       <c r="E2171" t="n">
-        <v>9163461590.309999</v>
+        <v>9163462890.73</v>
       </c>
     </row>
     <row r="2172">
@@ -46048,7 +46048,7 @@
         <v>390386722.14</v>
       </c>
       <c r="E2172" t="n">
-        <v>9203478825.549999</v>
+        <v>9203480131.65</v>
       </c>
     </row>
     <row r="2173">
@@ -46069,7 +46069,7 @@
         <v>272527695.47</v>
       </c>
       <c r="E2173" t="n">
-        <v>9051363626.700001</v>
+        <v>9051364911.209999</v>
       </c>
     </row>
     <row r="2174">
@@ -46090,7 +46090,7 @@
         <v>314726123.83</v>
       </c>
       <c r="E2174" t="n">
-        <v>8805705877.57</v>
+        <v>8805707127.23</v>
       </c>
     </row>
     <row r="2175">
@@ -46111,7 +46111,7 @@
         <v>337228475.74</v>
       </c>
       <c r="E2175" t="n">
-        <v>9112545989.879999</v>
+        <v>9112547283.07</v>
       </c>
     </row>
     <row r="2176">
@@ -46132,7 +46132,7 @@
         <v>303450120.31</v>
       </c>
       <c r="E2176" t="n">
-        <v>8942354440.09</v>
+        <v>8942355709.129999</v>
       </c>
     </row>
     <row r="2177">
@@ -46153,7 +46153,7 @@
         <v>168653006.9</v>
       </c>
       <c r="E2177" t="n">
-        <v>8657022904.58</v>
+        <v>8657024133.129999</v>
       </c>
     </row>
     <row r="2178">
@@ -46174,7 +46174,7 @@
         <v>189971609.1</v>
       </c>
       <c r="E2178" t="n">
-        <v>8372877733.6</v>
+        <v>8372878921.83</v>
       </c>
     </row>
     <row r="2179">
@@ -46195,7 +46195,7 @@
         <v>239292173.84</v>
       </c>
       <c r="E2179" t="n">
-        <v>8291647871.56</v>
+        <v>8291649048.26</v>
       </c>
     </row>
     <row r="2180">
@@ -46216,7 +46216,7 @@
         <v>235673189.51</v>
       </c>
       <c r="E2180" t="n">
-        <v>8446720897.73</v>
+        <v>8446722096.43</v>
       </c>
     </row>
     <row r="2181">
@@ -46237,7 +46237,7 @@
         <v>286789037.54</v>
       </c>
       <c r="E2181" t="n">
-        <v>8226533303.11</v>
+        <v>8226534470.57</v>
       </c>
     </row>
     <row r="2182">
@@ -46258,7 +46258,7 @@
         <v>558227140.77</v>
       </c>
       <c r="E2182" t="n">
-        <v>9289805948.889999</v>
+        <v>9289807267.24</v>
       </c>
     </row>
     <row r="2183">
@@ -46279,7 +46279,7 @@
         <v>712574477.8</v>
       </c>
       <c r="E2183" t="n">
-        <v>9785833548.15</v>
+        <v>9785834936.9</v>
       </c>
     </row>
     <row r="2184">
@@ -46300,7 +46300,7 @@
         <v>701455223.17</v>
       </c>
       <c r="E2184" t="n">
-        <v>10908678538.19</v>
+        <v>10908680086.28</v>
       </c>
     </row>
     <row r="2185">
@@ -46321,7 +46321,7 @@
         <v>507743512.15</v>
       </c>
       <c r="E2185" t="n">
-        <v>10425234457.09</v>
+        <v>10425235936.58</v>
       </c>
     </row>
     <row r="2186">
@@ -46342,7 +46342,7 @@
         <v>856034736.52</v>
       </c>
       <c r="E2186" t="n">
-        <v>10471528212.46</v>
+        <v>10471529698.51</v>
       </c>
     </row>
     <row r="2187">
@@ -46363,7 +46363,7 @@
         <v>549372480.53</v>
       </c>
       <c r="E2187" t="n">
-        <v>10850638289.67</v>
+        <v>10850639829.53</v>
       </c>
     </row>
     <row r="2188">
@@ -46384,7 +46384,7 @@
         <v>527365395.85</v>
       </c>
       <c r="E2188" t="n">
-        <v>10506580075.6</v>
+        <v>10506581566.63</v>
       </c>
     </row>
     <row r="2189">
@@ -46405,7 +46405,7 @@
         <v>616295435</v>
       </c>
       <c r="E2189" t="n">
-        <v>9847415736.559999</v>
+        <v>9847417134.040001</v>
       </c>
     </row>
     <row r="2190">
@@ -46426,7 +46426,7 @@
         <v>406317732.88</v>
       </c>
       <c r="E2190" t="n">
-        <v>9747896994.440001</v>
+        <v>9747898377.799999</v>
       </c>
     </row>
     <row r="2191">
@@ -46447,7 +46447,7 @@
         <v>325955868.44</v>
       </c>
       <c r="E2191" t="n">
-        <v>9347629599.83</v>
+        <v>9347630926.389999</v>
       </c>
     </row>
     <row r="2192">
@@ -46468,7 +46468,7 @@
         <v>469056883.47</v>
       </c>
       <c r="E2192" t="n">
-        <v>9577984992.950001</v>
+        <v>9577986352.200001</v>
       </c>
     </row>
     <row r="2193">
@@ -46489,7 +46489,7 @@
         <v>402160620.27</v>
       </c>
       <c r="E2193" t="n">
-        <v>9367295170.02</v>
+        <v>9367296499.370001</v>
       </c>
     </row>
     <row r="2194">
@@ -46510,7 +46510,7 @@
         <v>397138016.27</v>
       </c>
       <c r="E2194" t="n">
-        <v>9526360892.190001</v>
+        <v>9526362244.110001</v>
       </c>
     </row>
     <row r="2195">
@@ -46531,7 +46531,7 @@
         <v>574130455.67</v>
       </c>
       <c r="E2195" t="n">
-        <v>9795524110.42</v>
+        <v>9795525500.540001</v>
       </c>
     </row>
     <row r="2196">
@@ -46552,7 +46552,7 @@
         <v>814750460.95</v>
       </c>
       <c r="E2196" t="n">
-        <v>10585967718.72</v>
+        <v>10585969221.02</v>
       </c>
     </row>
     <row r="2197">
@@ -46567,13 +46567,13 @@
         </is>
       </c>
       <c r="C2197" t="n">
-        <v>24.4</v>
+        <v>24.31</v>
       </c>
       <c r="D2197" t="n">
-        <v>774127840.6799999</v>
+        <v>778825822.28</v>
       </c>
       <c r="E2197" t="n">
-        <v>10276684695.79</v>
+        <v>10237448971.36</v>
       </c>
     </row>
   </sheetData>
